--- a/test-output/QLCT_Regression_Test.xlsx
+++ b/test-output/QLCT_Regression_Test.xlsx
@@ -9,8 +9,939 @@
     <sheet name="Summary" r:id="rId3" sheetId="1"/>
     <sheet name="Case 1" r:id="rId4" sheetId="2"/>
     <sheet name="Case 2" r:id="rId5" sheetId="3"/>
+    <sheet name="Case 3" r:id="rId6" sheetId="4"/>
+    <sheet name="Case 4.1" r:id="rId7" sheetId="5"/>
+    <sheet name="Case 4.2" r:id="rId8" sheetId="6"/>
+    <sheet name="Case 4.3" r:id="rId9" sheetId="7"/>
+    <sheet name="Case 4.4" r:id="rId10" sheetId="8"/>
+    <sheet name="Case 4.5" r:id="rId11" sheetId="9"/>
+    <sheet name="Case 4.6" r:id="rId12" sheetId="10"/>
+    <sheet name="Case 4.7" r:id="rId13" sheetId="11"/>
+    <sheet name="Case 4.8" r:id="rId14" sheetId="12"/>
+    <sheet name="Case 5" r:id="rId15" sheetId="13"/>
+    <sheet name="Case 10" r:id="rId16" sheetId="14"/>
   </sheets>
 </workbook>
+</file>
+
+<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="F5" authorId="0">
+      <text>
+        <t>{"user":"0909498114","result":true,"errorCode":0,"errorDesc":"","data":{"time":1656327708234,"statusCode":200,"errorCode":0,"errorDes":null,"icon":null,"name":null,"expenseCategories":null,"category":{"id":343,"groupName":"POST - Add user category - Type: OUT - Group: 2 - Parent: Was Created","categoryType":"OUT","userId":"0909498114","iconId":103,"parentId":338,"levelGroup":2,"iconLink":null},"blacklist":null}}</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="F5" authorId="0">
+      <text>
+        <t>{"user":"0909498114","result":true,"errorCode":0,"errorDesc":"","data":{"time":1656327708512,"statusCode":200,"errorCode":0,"errorDes":null,"icon":null,"name":null,"expenseCategories":null,"category":{"id":344,"groupName":"POST - Add user category - Type: OUT - Group: 2 - Parent: Default No Subcategory","categoryType":"OUT","userId":"0909498114","iconId":103,"parentId":2,"levelGroup":2,"iconLink":null},"blacklist":null}}</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="F5" authorId="0">
+      <text>
+        <t>{"user":"0909498114","result":true,"errorCode":0,"errorDesc":"","data":{"time":1656327708937,"statusCode":200,"errorCode":0,"errorDes":null,"icon":null,"name":null,"expenseCategories":null,"category":{"id":345,"groupName":"POST - Add user category - Type: OUT - Group: 2 - Parent: Default Have Subcategory","categoryType":"OUT","userId":"0909498114","iconId":103,"parentId":3,"levelGroup":2,"iconLink":null},"blacklist":null}}</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="D5" authorId="0">
+      <text>
+        <t>The response is contains:
+[{
+    "id": 3, 
+    "groupName": "Phát triển bản thân", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 93, 
+    "parentId": 0, 
+    "levelGroup": 1, 
+    "iconLink": "https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/Improvey-self.png"
+}, 
+{
+    "id": 4, 
+    "groupName": "Sức khỏe", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 94, 
+    "parentId": 0, 
+    "levelGroup": 1, 
+    "iconLink": "https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/Healthybeauty.png"
+}, 
+{
+    "id": 5, 
+    "groupName": "Trả nợ", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 95, 
+    "parentId": 0, 
+    "levelGroup": 1, 
+    "iconLink": "https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/payment.png"
+}, 
+{
+    "id": 6, 
+    "groupName": "Mua sắm", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 151, 
+    "parentId": 0, 
+    "levelGroup": 1, 
+    "iconLink": "https://atc-edge06.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/shopping.png"
+}, 
+{
+    "id": 7, 
+    "groupName": "Đồ điện tử", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 152, 
+    "parentId": 84, 
+    "levelGroup": 2, 
+    "iconLink": "https://atc-edge20.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/electronics.png"
+}, 
+{
+    "id": 8, 
+    "groupName": "Phương tiện", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 153, 
+    "parentId": 84, 
+    "levelGroup": 2, 
+    "iconLink": "https://atc-edge26.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/vehicle.png"
+}, 
+{
+    "id": 9, 
+    "groupName": "Nội thất", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 154, 
+    "parentId": 84, 
+    "levelGroup": 2, 
+    "iconLink": "https://atc-edge25.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/furniture.png"
+}, 
+{
+    "id": 10, 
+    "groupName": "Cho vay", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 146, 
+    "parentId": 0, 
+    "levelGroup": 1, 
+    "iconLink": "https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/loan.png"
+}, 
+{
+    "id": 11, 
+    "groupName": "Ăn uống", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 3, 
+    "parentId": 0, 
+    "levelGroup": 1, 
+    "iconLink": "https://img.mservice.io/momo_app_v2/new_version/img/Product_Engagement/24062020_anuong@3x.png"
+}, 
+{
+    "id": 12, 
+    "groupName": "Giải trí - du lịch", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 32, 
+    "parentId": 0, 
+    "levelGroup": 1, 
+    "iconLink": "https://img.mservice.io/momo_app_v2/new_version/img/Product_Engagement/24062020_giaitri@3x.png"
+}, 
+{
+    "id": 13, 
+    "groupName": "Đi lại", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 2, 
+    "parentId": 0, 
+    "levelGroup": 1, 
+    "iconLink": "https://img.mservice.io/momo_app_v2/new_version/img/Product_Engagement/24062020_dichuyen@3x.png"
+}, 
+{
+    "id": 2, 
+    "groupName": "Khác", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 34, 
+    "parentId": 0, 
+    "levelGroup": 1, 
+    "iconLink": "https://img.mservice.io/momo_app_v2/new_version/img/Product_Engagement/24062020_khac@3x.png"
+}, 
+{
+    "id": 14, 
+    "groupName": "Chuyển tiền", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 71, 
+    "parentId": 0, 
+    "levelGroup": 1, 
+    "iconLink": "https://img.mservice.io/momo_app_v2/new_version/img/Product_Engagement/29062020_chuyentien@3x.png"
+}, 
+{
+    "id": 15, 
+    "groupName": "Sinh hoạt phí", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 80, 
+    "parentId": 0, 
+    "levelGroup": 1, 
+    "iconLink": "https://app.momo.vn:82/momo_app_v2/img/app_icon/ic_hoa_don_khac.png"
+}, 
+{
+    "id": 16, 
+    "groupName": "Tích luỹ cá nhân", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 74, 
+    "parentId": 0, 
+    "levelGroup": 1, 
+    "iconLink": "https://img.mservice.io/momo_app_v2/new_version/img/Product_Engagement/29062020_taichinhbaohiem@3x.png"
+}, 
+{
+    "id": 17, 
+    "groupName": "Kinh doanh", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 144, 
+    "parentId": 0, 
+    "levelGroup": 1, 
+    "iconLink": "https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/business.png"
+}, 
+{
+    "id": 18, 
+    "groupName": "Quyên góp - từ thiện", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 92, 
+    "parentId": 0, 
+    "levelGroup": 1, 
+    "iconLink": "https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/donation.png"
+}, 
+{
+    "id": 19, 
+    "groupName": "Con cái", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 111, 
+    "parentId": 0, 
+    "levelGroup": 1, 
+    "iconLink": "https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/children.png"
+}, 
+{
+    "id": 20, 
+    "groupName": "Xã giao", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 112, 
+    "parentId": 0, 
+    "levelGroup": 1, 
+    "iconLink": "https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/friend.png"
+}, 
+{
+    "id": 21, 
+    "groupName": "Nhà cửa", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 113, 
+    "parentId": 0, 
+    "levelGroup": 1, 
+    "iconLink": "https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/house.png"
+}, 
+{
+    "id": 22, 
+    "groupName": "Ăn sáng", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 114, 
+    "parentId": 1, 
+    "levelGroup": 2, 
+    "iconLink": "https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/Breakfast.png"
+}, 
+{
+    "id": 23, 
+    "groupName": "Ăn trưa", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 115, 
+    "parentId": 1, 
+    "levelGroup": 2, 
+    "iconLink": "https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/Lunch.png"
+}, 
+{
+    "id": 24, 
+    "groupName": "Ăn tối", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 116, 
+    "parentId": 1, 
+    "levelGroup": 2, 
+    "iconLink": "https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/Dinner.png"
+}, 
+{
+    "id": 25, 
+    "groupName": "Ăn tiệm", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 117, 
+    "parentId": 1, 
+    "levelGroup": 2, 
+    "iconLink": "https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/restautant.png"
+}, 
+{
+    "id": 26, 
+    "groupName": "Gym,  yoga", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 118, 
+    "parentId": 15, 
+    "levelGroup": 2, 
+    "iconLink": "https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/Gym.png"
+}, 
+{
+    "id": 27, 
+    "groupName": "Trợ cấp người thân", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 145, 
+    "parentId": 0, 
+    "levelGroup": 1, 
+    "iconLink": "https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/subsidizepp.png"
+}, 
+{
+    "id": 28, 
+    "groupName": "Spa,  massage", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 120, 
+    "parentId": 15, 
+    "levelGroup": 2, 
+    "iconLink": "https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/spamassage.png"
+}, 
+{
+    "id": 29, 
+    "groupName": "Mỹ phẩm", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 121, 
+    "parentId": 15, 
+    "levelGroup": 2, 
+    "iconLink": "https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/Cosmetics.png"
+}, 
+{
+    "id": 30, 
+    "groupName": "Văn phòng phẩm", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 122, 
+    "parentId": 14, 
+    "levelGroup": 2, 
+    "iconLink": "https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/stationery.png"
+}, 
+{
+    "id": 31, 
+    "groupName": "Truyền hình", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 84, 
+    "parentId": 10, 
+    "levelGroup": 2, 
+    "iconLink": "https://app.momo.vn/icon/momo_app_v2/img/app_icon/folder_truyen_hinh.png"
+}, 
+{
+    "id": 32, 
+    "groupName": "Thuê giúp việc", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 123, 
+    "parentId": 49, 
+    "levelGroup": 2, 
+    "iconLink": "https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/helper.png"
+}, 
+{
+    "id": 33, 
+    "groupName": "Thú cưng", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 124, 
+    "parentId": 49, 
+    "levelGroup": 2, 
+    "iconLink": "https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/pet.png"
+}, 
+{
+    "id": 34, 
+    "groupName": "Bảo dưỡng,  sửa chữa nhà", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 126, 
+    "parentId": 49, 
+    "levelGroup": 2, 
+    "iconLink": "https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/homemaintenance.png"
+}, 
+{
+    "id": 35, 
+    "groupName": "Tiết kiệm", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 127, 
+    "parentId": 11, 
+    "levelGroup": 2, 
+    "iconLink": "https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/save.png"
+}, 
+{
+    "id": 36, 
+    "groupName": "Bảo hiểm", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 128, 
+    "parentId": 11, 
+    "levelGroup": 2, 
+    "iconLink": "https://img.mservice.io/momo_app_v2/new_version/img/appx_image/ic_dong_bao_hiem.png"
+}, 
+{
+    "id": 37, 
+    "groupName": "Học phí cho con", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 147, 
+    "parentId": 47, 
+    "levelGroup": 2, 
+    "iconLink": "https://img.mservice.io/momo_app_v2/img/logo_school.png"
+}, 
+{
+    "id": 38, 
+    "groupName": "Quần áo cho con", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 130, 
+    "parentId": 47, 
+    "levelGroup": 2, 
+    "iconLink": "https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/dresschild.png"
+}, 
+{
+    "id": 39, 
+    "groupName": "Bỉm,  sữa", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 131, 
+    "parentId": 47, 
+    "levelGroup": 2, 
+    "iconLink": "https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/Diapermilk.png"
+}, 
+{
+    "id": 40, 
+    "groupName": "Tiêu vặt của con", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 132, 
+    "parentId": 47, 
+    "levelGroup": 2, 
+    "iconLink": "https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/pocketmoney.png"
+}, 
+{
+    "id": 41, 
+    "groupName": "Trông trẻ", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 133, 
+    "parentId": 47, 
+    "levelGroup": 2, 
+    "iconLink": "https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/babysitting.png"
+}, 
+{
+    "id": 42, 
+    "groupName": "Đồ chơi cho con", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 134, 
+    "parentId": 47, 
+    "levelGroup": 2, 
+    "iconLink": "https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/toy.png"
+}, 
+{
+    "id": 43, 
+    "groupName": "Thăm hỏi", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 135, 
+    "parentId": 48, 
+    "levelGroup": 2, 
+    "iconLink": "https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/greeting.png"
+}, 
+{
+    "id": 44, 
+    "groupName": "Cưới xin", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 136, 
+    "parentId": 48, 
+    "levelGroup": 2, 
+    "iconLink": "https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/marriage.png"
+}, 
+{
+    "id": 45, 
+    "groupName": "Tiếp khách", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 137, 
+    "parentId": 48, 
+    "levelGroup": 2, 
+    "iconLink": "https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/reception.png"
+}, 
+{
+    "id": 46, 
+    "groupName": "Khám chữa bệnh", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 79, 
+    "parentId": 15, 
+    "levelGroup": 2, 
+    "iconLink": "https://img.mservice.io/momo_app_v2/new_version/img/icon/ic_Homescreen_thanh_toan_vien_phi@3x.png"
+}, 
+{
+    "id": 47, 
+    "groupName": "Đầu tư", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 119, 
+    "parentId": 11, 
+    "levelGroup": 2, 
+    "iconLink": "https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/investment.png"
+}, 
+{
+    "id": 48, 
+    "groupName": "Đi chợ,  siêu thị", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 96, 
+    "parentId": 84, 
+    "levelGroup": 2, 
+    "iconLink": "https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/Supermarket.png"
+}, 
+{
+    "id": 49, 
+    "groupName": "Cà phê,  trà đá", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 97, 
+    "parentId": 1, 
+    "levelGroup": 2, 
+    "iconLink": "https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/coffee.png"
+}, 
+{
+    "id": 50, 
+    "groupName": "Ăn vặt", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 138, 
+    "parentId": 1, 
+    "levelGroup": 2, 
+    "iconLink": "https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/Snack.png"
+}, 
+{
+    "id": 51, 
+    "groupName": "Vé tàu xe máy bay", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 98, 
+    "parentId": 4, 
+    "levelGroup": 2, 
+    "iconLink": "https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/airticket.png"
+}, 
+{
+    "id": 52, 
+    "groupName": "Taxi,  xe ôm", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 139, 
+    "parentId": 4, 
+    "levelGroup": 2, 
+    "iconLink": "https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/taxi.png"
+}, 
+{
+    "id": 53, 
+    "groupName": "Xăng dầu", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 99, 
+    "parentId": 4, 
+    "levelGroup": 2, 
+    "iconLink": "https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/gasonline.png"
+}, 
+{
+    "id": 54, 
+    "groupName": "Gửi xe", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 100, 
+    "parentId": 4, 
+    "levelGroup": 2, 
+    "iconLink": "https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/Parking.png"
+}, 
+{
+    "id": 55, 
+    "groupName": "Bảo dưỡng,  sửa chữa xe", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 101, 
+    "parentId": 4, 
+    "levelGroup": 2, 
+    "iconLink": "https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/Vehiclemaintance.png"
+}, 
+{
+    "id": 56, 
+    "groupName": "Phim ảnh", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 102, 
+    "parentId": 3, 
+    "levelGroup": 2, 
+    "iconLink": "https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/FIlm.png"
+}, 
+{
+    "id": 57, 
+    "groupName": "Vui chơi,  giải trí", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 103, 
+    "parentId": 3, 
+    "levelGroup": 2, 
+    "iconLink": "https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/intertainment.png"
+}, 
+{
+    "id": 58, 
+    "groupName": "Trò chơi", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 104, 
+    "parentId": 3, 
+    "levelGroup": 2, 
+    "iconLink": "https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/game.png"
+}, 
+{
+    "id": 59, 
+    "groupName": "Học phí", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 88, 
+    "parentId": 14, 
+    "levelGroup": 2, 
+    "iconLink": "https://img.mservice.io/momo_app_v2/img/logo_school.png"
+}, 
+{
+    "id": 60, 
+    "groupName": "Phí nhà cửa - chung cư", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 89, 
+    "parentId": 10, 
+    "levelGroup": 2, 
+    "iconLink": "https://app.momo.vn:82/momo_app_v2/img/app_icon/ic_hoadonchungcu22x.png"
+}, 
+{
+    "id": 61, 
+    "groupName": "Điện", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 81, 
+    "parentId": 10, 
+    "levelGroup": 2, 
+    "iconLink": "https://app.momo.vn/icon/momo_app_v2/img/app_icon/folder_dien.png"
+}, 
+{
+    "id": 62, 
+    "groupName": "Điện thoại", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 85, 
+    "parentId": 10, 
+    "levelGroup": 2, 
+    "iconLink": "https://app.momo.vn/icon/momo_app_v2/img/app_icon/folder_dien_thoai_di_dong_co_dinh.png"
+}, 
+{
+    "id": 63, 
+    "groupName": "Nước", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 82, 
+    "parentId": 10, 
+    "levelGroup": 2, 
+    "iconLink": "https://img.mservice.io/momo_app_v2/new_version/img/appx_image/folder_nuoc.png"
+}, 
+{
+    "id": 64, 
+    "groupName": "Internet", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 83, 
+    "parentId": 10, 
+    "levelGroup": 2, 
+    "iconLink": "https://app.momo.vn/icon/momo_app_v2/img/app_icon/folder_internet.png"
+}, 
+{
+    "id": 65, 
+    "groupName": "Đồ gia dụng", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 105, 
+    "parentId": 84, 
+    "levelGroup": 2, 
+    "iconLink": "https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/houseware.png"
+}, 
+{
+    "id": 66, 
+    "groupName": "Áo quần - phụ kiện", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 106, 
+    "parentId": 84, 
+    "levelGroup": 2, 
+    "iconLink": "https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/Dress.png"
+}, 
+{
+    "id": 67, 
+    "groupName": "Chăm sóc cá nhân", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 148, 
+    "parentId": 84, 
+    "levelGroup": 2, 
+    "iconLink": "https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/personalcare.png"
+}, 
+{
+    "id": 68, 
+    "groupName": "Thuê nhà", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 108, 
+    "parentId": 49, 
+    "levelGroup": 2, 
+    "iconLink": "https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/renthouse.png"
+}, 
+{
+    "id": 69, 
+    "groupName": "Quà biếu", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 109, 
+    "parentId": 48, 
+    "levelGroup": 2, 
+    "iconLink": "https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/gift.png"
+}, 
+{
+    "id": 70, 
+    "groupName": "Âm nhạc", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 140, 
+    "parentId": 3, 
+    "levelGroup": 2, 
+    "iconLink": "https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/music.png"
+}, 
+{
+    "id": 71, 
+    "groupName": "Du lịch", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 110, 
+    "parentId": 3, 
+    "levelGroup": 2, 
+    "iconLink": "https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/travel.png"
+}, 
+{
+    "id": 72, 
+    "groupName": "Thể thao", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 141, 
+    "parentId": 15, 
+    "levelGroup": 2, 
+    "iconLink": "https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/Sport.png"
+}, 
+{
+    "id": 73, 
+    "groupName": "Gas", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 142, 
+    "parentId": 10, 
+    "levelGroup": 2, 
+    "iconLink": "https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/Gas.png"
+}, 
+{
+    "id": 74, 
+    "groupName": "Sách", 
+    "categoryType": "OUT", 
+    "userId": "SYSTEM", 
+    "iconId": 143, 
+    "parentId": 14, 
+    "levelGroup": 2, 
+    "iconLink": "https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/book.png"
+}, 
+{
+    "id": 75, 
+    "groupName": "Thu hồi nợ", 
+    "categoryType": "IN", 
+    "userId": "SYSTEM", 
+    "iconId": 67, 
+    "parentId": 0, 
+    "levelGroup": 1, 
+    "iconLink": "https://img.mservice.io/momo_app_v2/new_version/img/Product_Engagement/29062020_naptienvaovi@3x.png"
+}, 
+{
+    "id": 76, 
+    "groupName": "Mừng tặng", 
+    "categoryType": "IN", 
+    "userId": "SYSTEM", 
+    "iconId": 67, 
+    "parentId": 0, 
+    "levelGroup": 1, 
+    "iconLink": "https://img.mservice.io/momo_app_v2/new_version/img/Product_Engagement/29062020_naptienvaovi@3x.png"
+}, 
+{
+    "id": 77, 
+    "groupName": "Hoàn tiền", 
+    "categoryType": "IN", 
+    "userId": "SYSTEM", 
+    "iconId": 149, 
+    "parentId": 0, 
+    "levelGroup": 1, 
+    "iconLink": "https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/refund.png"
+}, 
+{
+    "id": 78, 
+    "groupName": "Chiết khấu - Hoa hồng", 
+    "categoryType": "IN", 
+    "userId": "SYSTEM", 
+    "iconId": 150, 
+    "parentId": 0, 
+    "levelGroup": 1, 
+    "iconLink": "https://atc-edge11.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/commission.png"
+}, 
+{
+    "id": 79, 
+    "groupName": "Lương", 
+    "categoryType": "IN", 
+    "userId": "SYSTEM", 
+    "iconId": 35, 
+    "parentId": 0, 
+    "levelGroup": 1, 
+    "iconLink": "https://img.mservice.io/momo_app_v2/new_version/img/Product_Engagement/24062020_luong@3x.png"
+}, 
+{
+    "id": 80, 
+    "groupName": "Đi vay", 
+    "categoryType": "IN", 
+    "userId": "SYSTEM", 
+    "iconId": 36, 
+    "parentId": 0, 
+    "levelGroup": 1, 
+    "iconLink": "https://img.mservice.io/momo_app_v2/new_version/img/Product_Engagement/24062020_chovay@3x.png"
+}, 
+{
+    "id": 81, 
+    "groupName": "Thưởng", 
+    "categoryType": "IN", 
+    "userId": "SYSTEM", 
+    "iconId": 74, 
+    "parentId": 0, 
+    "levelGroup": 1, 
+    "iconLink": "https://img.mservice.io/momo_app_v2/new_version/img/Product_Engagement/29062020_taichinhbaohiem@3x.png"
+}, 
+{
+    "id": 82, 
+    "groupName": "Đầu tư", 
+    "categoryType": "IN", 
+    "userId": "SYSTEM", 
+    "iconId": 67, 
+    "parentId": 0, 
+    "levelGroup": 1, 
+    "iconLink": "https://img.mservice.io/momo_app_v2/new_version/img/Product_Engagement/29062020_naptienvaovi@3x.png"
+}, 
+{
+    "id": 83, 
+    "groupName": "Kinh doanh", 
+    "categoryType": "IN", 
+    "userId": "SYSTEM", 
+    "iconId": 68, 
+    "parentId": 0, 
+    "levelGroup": 1, 
+    "iconLink": "https://img.mservice.io/momo_app_v2/new_version/img/Product_Engagement/29062020_chietkhauhoantien@3x.png"
+}, 
+{
+    "id": 84, 
+    "groupName": "Nhận tiền", 
+    "categoryType": "IN", 
+    "userId": "SYSTEM", 
+    "iconId": 69, 
+    "parentId": 0, 
+    "levelGroup": 1, 
+    "iconLink": "https://img.mservice.io/momo_app_v2/new_version/img/Product_Engagement/29062020_nhantien@3x.png"
+}, 
+{
+    "id": 1, 
+    "groupName": "Khác", 
+    "categoryType": "IN", 
+    "userId": "SYSTEM", 
+    "iconId": 34, 
+    "parentId": 0, 
+    "levelGroup": 1, 
+    "iconLink": "https://img.mservice.io/momo_app_v2/new_version/img/Product_Engagement/24062020_khac@3x.png"
+}]</t>
+      </text>
+    </comment>
+    <comment ref="F5" authorId="0">
+      <text>
+        <t>{"user":"0909498114","result":true,"errorCode":0,"errorDesc":"","data":{"time":1656327709255,"statusCode":200,"errorCode":0,"errorDes":null,"icon":null,"name":null,"expenseCategories":[{"id":304,"groupName":"POST - Add user category - Type: IN - Group: 1","categoryType":"IN","userId":"0909498114","iconId":98,"parentId":0,"levelGroup":1,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/airticket.png"},{"id":305,"groupName":"POST - Add user category - Type: IN - Group: 1","categoryType":"IN","userId":"0909498114","iconId":98,"parentId":0,"levelGroup":1,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/airticket.png"},{"id":306,"groupName":"POST - Add user category - Type: IN - Group: 1","categoryType":"IN","userId":"0909498114","iconId":98,"parentId":0,"levelGroup":1,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/airticket.png"},{"id":301,"groupName":"Tiền trở về","categoryType":"IN","userId":"0909498114","iconId":98,"parentId":0,"levelGroup":1,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/airticket.png"},{"id":302,"groupName":"Viện phí","categoryType":"IN","userId":"0909498114","iconId":98,"parentId":0,"levelGroup":1,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/airticket.png"},{"id":307,"groupName":"POST - Add user category - Type: IN - Group: 1","categoryType":"IN","userId":"0909498114","iconId":98,"parentId":0,"levelGroup":1,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/airticket.png"},{"id":308,"groupName":"POST - Add user category - Type: IN - Group: 1","categoryType":"IN","userId":"0909498114","iconId":98,"parentId":0,"levelGroup":1,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/airticket.png"},{"id":309,"groupName":"POST - Add user category - Type: IN - Group: 1","categoryType":"IN","userId":"0909498114","iconId":98,"parentId":0,"levelGroup":1,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/airticket.png"},{"id":310,"groupName":"POST - Add user category - Type: IN - Group: 1","categoryType":"IN","userId":"0909498114","iconId":98,"parentId":0,"levelGroup":1,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/airticket.png"},{"id":324,"groupName":"POST - Add user category - Type: IN - Group: 1","categoryType":"IN","userId":"0909498114","iconId":98,"parentId":0,"levelGroup":1,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/airticket.png"},{"id":325,"groupName":"POST - Add user category - Type: IN - Group: 2 - Parent: Was Created","categoryType":"IN","userId":"0909498114","iconId":97,"parentId":324,"levelGroup":2,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/coffee.png"},{"id":326,"groupName":"POST - Add user category - Type: IN - Group: 1","categoryType":"IN","userId":"0909498114","iconId":98,"parentId":0,"levelGroup":1,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/airticket.png"},{"id":327,"groupName":"POST - Add user category - Type: IN - Group: 2 - Parent: Was Created","categoryType":"IN","userId":"0909498114","iconId":97,"parentId":326,"levelGroup":2,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/coffee.png"},{"id":328,"groupName":"POST - Add user category - Type: IN - Group: 2 - Parent: Default No Subcategory","categoryType":"IN","userId":"0909498114","iconId":102,"parentId":75,"levelGroup":2,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/FIlm.png"},{"id":329,"groupName":"POST - Add user category - Type: IN - Group: 2 - Parent: Default Have Subcategory","categoryType":"IN","userId":"0909498114","iconId":101,"parentId":1,"levelGroup":2,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/Vehiclemaintance.png"},{"id":330,"groupName":"POST - Add user category - Type: IN - Group: 1","categoryType":"IN","userId":"0909498114","iconId":98,"parentId":0,"levelGroup":1,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/airticket.png"},{"id":331,"groupName":"POST - Add user category - Type: IN - Group: 2 - Parent: Was Created","categoryType":"IN","userId":"0909498114","iconId":97,"parentId":330,"levelGroup":2,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/coffee.png"},{"id":332,"groupName":"POST - Add user category - Type: IN - Group: 2 - Parent: Default No Subcategory","categoryType":"IN","userId":"0909498114","iconId":102,"parentId":75,"levelGroup":2,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/FIlm.png"},{"id":333,"groupName":"POST - Add user category - Type: IN - Group: 2 - Parent: Default Have Subcategory","categoryType":"IN","userId":"0909498114","iconId":101,"parentId":1,"levelGroup":2,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/Vehiclemaintance.png"},{"id":334,"groupName":"POST - Add user category - Type: OUT - Group: 1","categoryType":"OUT","userId":"0909498114","iconId":103,"parentId":0,"levelGroup":1,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/intertainment.png"},{"id":335,"groupName":"POST - Add user category - Type: OUT - Group: 2 - Parent: Was Created","categoryType":"OUT","userId":"0909498114","iconId":103,"parentId":330,"levelGroup":2,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/intertainment.png"},{"id":336,"groupName":"POST - Add user category - Type: OUT - Group: 2 - Parent: Default No Subcategory","categoryType":"OUT","userId":"0909498114","iconId":103,"parentId":2,"levelGroup":2,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/intertainment.png"},{"id":337,"groupName":"POST - Add user category - Type: OUT - Group: 2 - Parent: Default Have Subcategory","categoryType":"OUT","userId":"0909498114","iconId":103,"parentId":3,"levelGroup":2,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/intertainment.png"},{"id":338,"groupName":"POST - Add user category - Type: IN - Group: 1","categoryType":"IN","userId":"0909498114","iconId":98,"parentId":0,"levelGroup":1,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/airticket.png"},{"id":339,"groupName":"POST - Add user category - Type: IN - Group: 2 - Parent: Was Created","categoryType":"IN","userId":"0909498114","iconId":97,"parentId":338,"levelGroup":2,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/coffee.png"},{"id":340,"groupName":"POST - Add user category - Type: IN - Group: 2 - Parent: Default No Subcategory","categoryType":"IN","userId":"0909498114","iconId":102,"parentId":75,"levelGroup":2,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/FIlm.png"},{"id":341,"groupName":"POST - Add user category - Type: IN - Group: 2 - Parent: Default Have Subcategory","categoryType":"IN","userId":"0909498114","iconId":101,"parentId":1,"levelGroup":2,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/Vehiclemaintance.png"},{"id":342,"groupName":"POST - Add user category - Type: OUT - Group: 1","categoryType":"OUT","userId":"0909498114","iconId":103,"parentId":0,"levelGroup":1,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/intertainment.png"},{"id":343,"groupName":"POST - Add user category - Type: OUT - Group: 2 - Parent: Was Created","categoryType":"OUT","userId":"0909498114","iconId":103,"parentId":338,"levelGroup":2,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/intertainment.png"},{"id":344,"groupName":"POST - Add user category - Type: OUT - Group: 2 - Parent: Default No Subcategory","categoryType":"OUT","userId":"0909498114","iconId":103,"parentId":2,"levelGroup":2,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/intertainment.png"},{"id":345,"groupName":"POST - Add user category - Type: OUT - Group: 2 - Parent: Default Have Subcategory","categoryType":"OUT","userId":"0909498114","iconId":103,"parentId":3,"levelGroup":2,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/intertainment.png"},{"id":303,"groupName":"Viện phí","categoryType":"IN","userId":"0909498114","iconId":98,"parentId":0,"levelGroup":1,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/airticket.png"},{"id":312,"groupName":"POST - Add user category - Type: IN - Group: 1","categoryType":"IN","userId":"0909498114","iconId":98,"parentId":0,"levelGroup":1,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/airticket.png"},{"id":313,"groupName":"POST - Add user category - Type: IN - Group: 1","categoryType":"IN","userId":"0909498114","iconId":98,"parentId":0,"levelGroup":1,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/airticket.png"},{"id":314,"groupName":"POST - Add user category - Type: IN - Group: 1","categoryType":"IN","userId":"0909498114","iconId":98,"parentId":0,"levelGroup":1,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/airticket.png"},{"id":315,"groupName":"POST - Add user category - Type: IN - Group: 1","categoryType":"IN","userId":"0909498114","iconId":98,"parentId":0,"levelGroup":1,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/airticket.png"},{"id":316,"groupName":"POST - Add user category - Type: IN - Group: 1","categoryType":"IN","userId":"0909498114","iconId":98,"parentId":0,"levelGroup":1,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/airticket.png"},{"id":3,"groupName":"Phát triển bản thân","categoryType":"OUT","userId":"SYSTEM","iconId":93,"parentId":0,"levelGroup":1,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/Improvey-self.png"},{"id":4,"groupName":"Sức khỏe","categoryType":"OUT","userId":"SYSTEM","iconId":94,"parentId":0,"levelGroup":1,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/Healthybeauty.png"},{"id":5,"groupName":"Trả nợ","categoryType":"OUT","userId":"SYSTEM","iconId":95,"parentId":0,"levelGroup":1,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/payment.png"},{"id":6,"groupName":"Mua sắm","categoryType":"OUT","userId":"SYSTEM","iconId":151,"parentId":0,"levelGroup":1,"iconLink":"https://atc-edge06.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/shopping.png"},{"id":7,"groupName":"Đồ điện tử","categoryType":"OUT","userId":"SYSTEM","iconId":152,"parentId":84,"levelGroup":2,"iconLink":"https://atc-edge20.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/electronics.png"},{"id":8,"groupName":"Phương tiện","categoryType":"OUT","userId":"SYSTEM","iconId":153,"parentId":84,"levelGroup":2,"iconLink":"https://atc-edge26.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/vehicle.png"},{"id":9,"groupName":"Nội thất","categoryType":"OUT","userId":"SYSTEM","iconId":154,"parentId":84,"levelGroup":2,"iconLink":"https://atc-edge25.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/furniture.png"},{"id":10,"groupName":"Cho vay","categoryType":"OUT","userId":"SYSTEM","iconId":146,"parentId":0,"levelGroup":1,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/loan.png"},{"id":11,"groupName":"Ăn uống","categoryType":"OUT","userId":"SYSTEM","iconId":3,"parentId":0,"levelGroup":1,"iconLink":"https://img.mservice.io/momo_app_v2/new_version/img/Product_Engagement/24062020_anuong@3x.png"},{"id":12,"groupName":"Giải trí - du lịch","categoryType":"OUT","userId":"SYSTEM","iconId":32,"parentId":0,"levelGroup":1,"iconLink":"https://img.mservice.io/momo_app_v2/new_version/img/Product_Engagement/24062020_giaitri@3x.png"},{"id":13,"groupName":"Đi lại","categoryType":"OUT","userId":"SYSTEM","iconId":2,"parentId":0,"levelGroup":1,"iconLink":"https://img.mservice.io/momo_app_v2/new_version/img/Product_Engagement/24062020_dichuyen@3x.png"},{"id":2,"groupName":"Khác","categoryType":"OUT","userId":"SYSTEM","iconId":34,"parentId":0,"levelGroup":1,"iconLink":"https://img.mservice.io/momo_app_v2/new_version/img/Product_Engagement/24062020_khac@3x.png"},{"id":14,"groupName":"Chuyển tiền","categoryType":"OUT","userId":"SYSTEM","iconId":71,"parentId":0,"levelGroup":1,"iconLink":"https://img.mservice.io/momo_app_v2/new_version/img/Product_Engagement/29062020_chuyentien@3x.png"},{"id":15,"groupName":"Sinh hoạt phí","categoryType":"OUT","userId":"SYSTEM","iconId":80,"parentId":0,"levelGroup":1,"iconLink":"https://app.momo.vn:82/momo_app_v2/img/app_icon/ic_hoa_don_khac.png"},{"id":16,"groupName":"Tích luỹ cá nhân","categoryType":"OUT","userId":"SYSTEM","iconId":74,"parentId":0,"levelGroup":1,"iconLink":"https://img.mservice.io/momo_app_v2/new_version/img/Product_Engagement/29062020_taichinhbaohiem@3x.png"},{"id":17,"groupName":"Kinh doanh","categoryType":"OUT","userId":"SYSTEM","iconId":144,"parentId":0,"levelGroup":1,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/business.png"},{"id":18,"groupName":"Quyên góp - từ thiện","categoryType":"OUT","userId":"SYSTEM","iconId":92,"parentId":0,"levelGroup":1,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/donation.png"},{"id":19,"groupName":"Con cái","categoryType":"OUT","userId":"SYSTEM","iconId":111,"parentId":0,"levelGroup":1,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/children.png"},{"id":20,"groupName":"Xã giao","categoryType":"OUT","userId":"SYSTEM","iconId":112,"parentId":0,"levelGroup":1,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/friend.png"},{"id":21,"groupName":"Nhà cửa","categoryType":"OUT","userId":"SYSTEM","iconId":113,"parentId":0,"levelGroup":1,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/house.png"},{"id":22,"groupName":"Ăn sáng","categoryType":"OUT","userId":"SYSTEM","iconId":114,"parentId":1,"levelGroup":2,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/Breakfast.png"},{"id":23,"groupName":"Ăn trưa","categoryType":"OUT","userId":"SYSTEM","iconId":115,"parentId":1,"levelGroup":2,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/Lunch.png"},{"id":24,"groupName":"Ăn tối","categoryType":"OUT","userId":"SYSTEM","iconId":116,"parentId":1,"levelGroup":2,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/Dinner.png"},{"id":25,"groupName":"Ăn tiệm","categoryType":"OUT","userId":"SYSTEM","iconId":117,"parentId":1,"levelGroup":2,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/restautant.png"},{"id":26,"groupName":"Gym, yoga","categoryType":"OUT","userId":"SYSTEM","iconId":118,"parentId":15,"levelGroup":2,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/Gym.png"},{"id":27,"groupName":"Trợ cấp người thân","categoryType":"OUT","userId":"SYSTEM","iconId":145,"parentId":0,"levelGroup":1,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/subsidizepp.png"},{"id":28,"groupName":"Spa, massage","categoryType":"OUT","userId":"SYSTEM","iconId":120,"parentId":15,"levelGroup":2,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/spamassage.png"},{"id":29,"groupName":"Mỹ phẩm","categoryType":"OUT","userId":"SYSTEM","iconId":121,"parentId":15,"levelGroup":2,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/Cosmetics.png"},{"id":30,"groupName":"Văn phòng phẩm","categoryType":"OUT","userId":"SYSTEM","iconId":122,"parentId":14,"levelGroup":2,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/stationery.png"},{"id":31,"groupName":"Truyền hình","categoryType":"OUT","userId":"SYSTEM","iconId":84,"parentId":10,"levelGroup":2,"iconLink":"https://app.momo.vn/icon/momo_app_v2/img/app_icon/folder_truyen_hinh.png"},{"id":32,"groupName":"Thuê giúp việc","categoryType":"OUT","userId":"SYSTEM","iconId":123,"parentId":49,"levelGroup":2,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/helper.png"},{"id":33,"groupName":"Thú cưng","categoryType":"OUT","userId":"SYSTEM","iconId":124,"parentId":49,"levelGroup":2,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/pet.png"},{"id":34,"groupName":"Bảo dưỡng, sửa chữa nhà","categoryType":"OUT","userId":"SYSTEM","iconId":126,"parentId":49,"levelGroup":2,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/homemaintenance.png"},{"id":35,"groupName":"Tiết kiệm","categoryType":"OUT","userId":"SYSTEM","iconId":127,"parentId":11,"levelGroup":2,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/save.png"},{"id":36,"groupName":"Bảo hiểm","categoryType":"OUT","userId":"SYSTEM","iconId":128,"parentId":11,"levelGroup":2,"iconLink":"https://img.mservice.io/momo_app_v2/new_version/img/appx_image/ic_dong_bao_hiem.png"},{"id":37,"groupName":"Học phí cho con","categoryType":"OUT","userId":"SYSTEM","iconId":147,"parentId":47,"levelGroup":2,"iconLink":"https://img.mservice.io/momo_app_v2/img/logo_school.png"},{"id":38,"groupName":"Quần áo cho con","categoryType":"OUT","userId":"SYSTEM","iconId":130,"parentId":47,"levelGroup":2,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/dresschild.png"},{"id":39,"groupName":"Bỉm, sữa","categoryType":"OUT","userId":"SYSTEM","iconId":131,"parentId":47,"levelGroup":2,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/Diapermilk.png"},{"id":40,"groupName":"Tiêu vặt của con","categoryType":"OUT","userId":"SYSTEM","iconId":132,"parentId":47,"levelGroup":2,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/pocketmoney.png"},{"id":41,"groupName":"Trông trẻ","categoryType":"OUT","userId":"SYSTEM","iconId":133,"parentId":47,"levelGroup":2,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/babysitting.png"},{"id":42,"groupName":"Đồ chơi cho con","categoryType":"OUT","userId":"SYSTEM","iconId":134,"parentId":47,"levelGroup":2,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/toy.png"},{"id":43,"groupName":"Thăm hỏi","categoryType":"OUT","userId":"SYSTEM","iconId":135,"parentId":48,"levelGroup":2,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/greeting.png"},{"id":44,"groupName":"Cưới xin","categoryType":"OUT","userId":"SYSTEM","iconId":136,"parentId":48,"levelGroup":2,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/marriage.png"},{"id":45,"groupName":"Tiếp khách","categoryType":"OUT","userId":"SYSTEM","iconId":137,"parentId":48,"levelGroup":2,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/reception.png"},{"id":46,"groupName":"Khám chữa bệnh","categoryType":"OUT","userId":"SYSTEM","iconId":79,"parentId":15,"levelGroup":2,"iconLink":"https://img.mservice.io/momo_app_v2/new_version/img/icon/ic_Homescreen_thanh_toan_vien_phi@3x.png"},{"id":47,"groupName":"Đầu tư","categoryType":"OUT","userId":"SYSTEM","iconId":119,"parentId":11,"levelGroup":2,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/investment.png"},{"id":48,"groupName":"Đi chợ, siêu thị","categoryType":"OUT","userId":"SYSTEM","iconId":96,"parentId":84,"levelGroup":2,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/Supermarket.png"},{"id":49,"groupName":"Cà phê, trà đá","categoryType":"OUT","userId":"SYSTEM","iconId":97,"parentId":1,"levelGroup":2,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/coffee.png"},{"id":50,"groupName":"Ăn vặt","categoryType":"OUT","userId":"SYSTEM","iconId":138,"parentId":1,"levelGroup":2,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/Snack.png"},{"id":51,"groupName":"Vé tàu xe máy bay","categoryType":"OUT","userId":"SYSTEM","iconId":98,"parentId":4,"levelGroup":2,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/airticket.png"},{"id":52,"groupName":"Taxi, xe ôm","categoryType":"OUT","userId":"SYSTEM","iconId":139,"parentId":4,"levelGroup":2,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/taxi.png"},{"id":53,"groupName":"Xăng dầu","categoryType":"OUT","userId":"SYSTEM","iconId":99,"parentId":4,"levelGroup":2,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/gasonline.png"},{"id":54,"groupName":"Gửi xe","categoryType":"OUT","userId":"SYSTEM","iconId":100,"parentId":4,"levelGroup":2,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/Parking.png"},{"id":55,"groupName":"Bảo dưỡng, sửa chữa xe","categoryType":"OUT","userId":"SYSTEM","iconId":101,"parentId":4,"levelGroup":2,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/Vehiclemaintance.png"},{"id":56,"groupName":"Phim ảnh","categoryType":"OUT","userId":"SYSTEM","iconId":102,"parentId":3,"levelGroup":2,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/FIlm.png"},{"id":57,"groupName":"Vui chơi, giải trí","categoryType":"OUT","userId":"SYSTEM","iconId":103,"parentId":3,"levelGroup":2,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/intertainment.png"},{"id":58,"groupName":"Trò chơi","categoryType":"OUT","userId":"SYSTEM","iconId":104,"parentId":3,"levelGroup":2,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/game.png"},{"id":59,"groupName":"Học phí","categoryType":"OUT","userId":"SYSTEM","iconId":88,"parentId":14,"levelGroup":2,"iconLink":"https://img.mservice.io/momo_app_v2/img/logo_school.png"},{"id":60,"groupName":"Phí nhà cửa - chung cư","categoryType":"OUT","userId":"SYSTEM","iconId":89,"parentId":10,"levelGroup":2,"iconLink":"https://app.momo.vn:82/momo_app_v2/img/app_icon/ic_hoadonchungcu22x.png"},{"id":61,"groupName":"Điện","categoryType":"OUT","userId":"SYSTEM","iconId":81,"parentId":10,"levelGroup":2,"iconLink":"https://app.momo.vn/icon/momo_app_v2/img/app_icon/folder_dien.png"},{"id":62,"groupName":"Điện thoại","categoryType":"OUT","userId":"SYSTEM","iconId":85,"parentId":10,"levelGroup":2,"iconLink":"https://app.momo.vn/icon/momo_app_v2/img/app_icon/folder_dien_thoai_di_dong_co_dinh.png"},{"id":63,"groupName":"Nước","categoryType":"OUT","userId":"SYSTEM","iconId":82,"parentId":10,"levelGroup":2,"iconLink":"https://img.mservice.io/momo_app_v2/new_version/img/appx_image/folder_nuoc.png"},{"id":64,"groupName":"Internet","categoryType":"OUT","userId":"SYSTEM","iconId":83,"parentId":10,"levelGroup":2,"iconLink":"https://app.momo.vn/icon/momo_app_v2/img/app_icon/folder_internet.png"},{"id":65,"groupName":"Đồ gia dụng","categoryType":"OUT","userId":"SYSTEM","iconId":105,"parentId":84,"levelGroup":2,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/houseware.png"},{"id":66,"groupName":"Áo quần - phụ kiện","categoryType":"OUT","userId":"SYSTEM","iconId":106,"parentId":84,"levelGroup":2,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/Dress.png"},{"id":67,"groupName":"Chăm sóc cá nhân","categoryType":"OUT","userId":"SYSTEM","iconId":148,"parentId":84,"levelGroup":2,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/personalcare.png"},{"id":68,"groupName":"Thuê nhà","categoryType":"OUT","userId":"SYSTEM","iconId":108,"parentId":49,"levelGroup":2,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/renthouse.png"},{"id":69,"groupName":"Quà biếu","categoryType":"OUT","userId":"SYSTEM","iconId":109,"parentId":48,"levelGroup":2,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/gift.png"},{"id":70,"groupName":"Âm nhạc","categoryType":"OUT","userId":"SYSTEM","iconId":140,"parentId":3,"levelGroup":2,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/music.png"},{"id":71,"groupName":"Du lịch","categoryType":"OUT","userId":"SYSTEM","iconId":110,"parentId":3,"levelGroup":2,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/travel.png"},{"id":72,"groupName":"Thể thao","categoryType":"OUT","userId":"SYSTEM","iconId":141,"parentId":15,"levelGroup":2,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/Sport.png"},{"id":73,"groupName":"Gas","categoryType":"OUT","userId":"SYSTEM","iconId":142,"parentId":10,"levelGroup":2,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/Gas.png"},{"id":74,"groupName":"Sách","categoryType":"OUT","userId":"SYSTEM","iconId":143,"parentId":14,"levelGroup":2,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/book.png"},{"id":75,"groupName":"Thu hồi nợ","categoryType":"IN","userId":"SYSTEM","iconId":67,"parentId":0,"levelGroup":1,"iconLink":"https://img.mservice.io/momo_app_v2/new_version/img/Product_Engagement/29062020_naptienvaovi@3x.png"},{"id":76,"groupName":"Mừng tặng","categoryType":"IN","userId":"SYSTEM","iconId":67,"parentId":0,"levelGroup":1,"iconLink":"https://img.mservice.io/momo_app_v2/new_version/img/Product_Engagement/29062020_naptienvaovi@3x.png"},{"id":77,"groupName":"Hoàn tiền","categoryType":"IN","userId":"SYSTEM","iconId":149,"parentId":0,"levelGroup":1,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/refund.png"},{"id":78,"groupName":"Chiết khấu - Hoa hồng","categoryType":"IN","userId":"SYSTEM","iconId":150,"parentId":0,"levelGroup":1,"iconLink":"https://atc-edge11.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/commission.png"},{"id":79,"groupName":"Lương","categoryType":"IN","userId":"SYSTEM","iconId":35,"parentId":0,"levelGroup":1,"iconLink":"https://img.mservice.io/momo_app_v2/new_version/img/Product_Engagement/24062020_luong@3x.png"},{"id":80,"groupName":"Đi vay","categoryType":"IN","userId":"SYSTEM","iconId":36,"parentId":0,"levelGroup":1,"iconLink":"https://img.mservice.io/momo_app_v2/new_version/img/Product_Engagement/24062020_chovay@3x.png"},{"id":81,"groupName":"Thưởng","categoryType":"IN","userId":"SYSTEM","iconId":74,"parentId":0,"levelGroup":1,"iconLink":"https://img.mservice.io/momo_app_v2/new_version/img/Product_Engagement/29062020_taichinhbaohiem@3x.png"},{"id":82,"groupName":"Đầu tư","categoryType":"IN","userId":"SYSTEM","iconId":67,"parentId":0,"levelGroup":1,"iconLink":"https://img.mservice.io/momo_app_v2/new_version/img/Product_Engagement/29062020_naptienvaovi@3x.png"},{"id":83,"groupName":"Kinh doanh","categoryType":"IN","userId":"SYSTEM","iconId":68,"parentId":0,"levelGroup":1,"iconLink":"https://img.mservice.io/momo_app_v2/new_version/img/Product_Engagement/29062020_chietkhauhoantien@3x.png"},{"id":84,"groupName":"Nhận tiền","categoryType":"IN","userId":"SYSTEM","iconId":69,"parentId":0,"levelGroup":1,"iconLink":"https://img.mservice.io/momo_app_v2/new_version/img/Product_Engagement/29062020_nhantien@3x.png"},{"id":1,"groupName":"Khác","categoryType":"IN","userId":"SYSTEM","iconId":34,"parentId":0,"levelGroup":1,"iconLink":"https://img.mservice.io/momo_app_v2/new_version/img/Product_Engagement/24062020_khac@3x.png"},{"id":311,"groupName":"POST - Add user category - Type: IN - Group: 1","categoryType":"IN","userId":"0909498114","iconId":98,"parentId":0,"levelGroup":1,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/airticket.png"},{"id":317,"groupName":"POST - Add user category - Type: IN - Group: 1","categoryType":"IN","userId":"0909498114","iconId":98,"parentId":0,"levelGroup":1,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/airticket.png"},{"id":318,"groupName":"POST - Add user category - Type: IN - Group: 1","categoryType":"IN","userId":"0909498114","iconId":98,"parentId":0,"levelGroup":1,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/airticket.png"},{"id":319,"groupName":"POST - Add user category - Type: IN - Group: 2 - Parent: vừa tạo","categoryType":"IN","userId":"0909498114","iconId":97,"parentId":1,"levelGroup":2,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/coffee.png"},{"id":320,"groupName":"POST - Add user category - Type: IN - Group: 1","categoryType":"IN","userId":"0909498114","iconId":98,"parentId":0,"levelGroup":1,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/airticket.png"},{"id":321,"groupName":"POST - Add user category - Type: IN - Group: 1","categoryType":"IN","userId":"0909498114","iconId":98,"parentId":0,"levelGroup":1,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/airticket.png"},{"id":322,"groupName":"POST - Add user category - Type: IN - Group: 1","categoryType":"IN","userId":"0909498114","iconId":98,"parentId":0,"levelGroup":1,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/airticket.png"},{"id":323,"groupName":"POST - Add user category - Type: IN - Group: 2 - Parent: vừa tạo","categoryType":"IN","userId":"0909498114","iconId":97,"parentId":322,"levelGroup":2,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/coffee.png"}],"category":null,"blacklist":["1","2","3"]}}</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="F4" authorId="0">
+      <text>
+        <t>{"user":"0909498114","result":true,"errorCode":0,"errorDesc":"","data":{"time":1656327705240,"statusCode":200,"errorCode":0,"errorDes":null,"moneySources":[{"idNew":0,"moneySourceType":"USER_CREATED","amount":51000000,"iconId":123,"moneySourceName":"Vietinbank **23 ","groupMoneySource":2,"extras":null,"id":1,"userId":"0909498114","moneySourceCredit":0,"creditAvailable":0,"isDeleted":0,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/helper.png","groupMoneySourceName":"Tiền mặt","moneySourceNameEn":null,"parentId":null},{"idNew":0,"moneySourceType":"USER_CREATED","amount":50000000,"iconId":110,"moneySourceName":"đây là điện tử trước khi edit","groupMoneySource":1,"extras":null,"id":2,"userId":"0909498114","moneySourceCredit":0,"creditAvailable":0,"isDeleted":0,"iconLink":"https://img.mservice.com.vn/momo_app_v2/new_version/appx_expense/image/travel.png","groupMoneySourceName":"Ví điện tử","moneySourceNameEn":null,"parentId":null},{"idNew":0,"moneySourceType":null,"amount":58978700,"iconId":0,"moneySourceName":"Ví MoMo","groupMoneySource":0,"extras":null,"id":10000,"userId":"0909498114","moneySourceCredit":0,"creditAvailable":0,"isDeleted":0,"iconLink":"https://img.mservice.com.vn/app/img/funds_manager/logo-momo.png","groupMoneySourceName":"","moneySourceNameEn":null,"parentId":null},{"idNew":0,"moneySourceType":null,"amount":0,"iconId":0,"moneySourceName":"Túi Thần Tài","groupMoneySource":0,"extras":null,"id":90000,"userId":"0909498114","moneySourceCredit":0,"creditAvailable":0,"isDeleted":0,"iconLink":"https://img.mservice.com.vn/app/img/funds_manager/logo-investment.png","groupMoneySourceName":"","moneySourceNameEn":null,"parentId":null},{"idNew":0,"moneySourceType":null,"amount":51000000,"iconId":123,"moneySourceName":"Visa **32","groupMoneySource":2,"extras":null,"id":1237959616,"userId":"0909498114","moneySourceCredit":0,"creditAvailable":1,"isDeleted":0,"iconLink":"https://img.mservice.io/momo_app_v2/new_version/All_team_/new_logo_bank/ic_visa.png","groupMoneySourceName":"Tiền mặt","moneySourceNameEn":null,"parentId":null},{"idNew":0,"moneySourceType":null,"amount":0,"iconId":0,"moneySourceName":"VietinBank","groupMoneySource":0,"extras":null,"id":1713572860,"userId":"0909498114","moneySourceCredit":0,"creditAvailable":0,"isDeleted":0,"iconLink":"https://img.mservice.io/momo_app_v2/new_version/All_team_/new_logo_bank/ic_vietinbank.png","groupMoneySourceName":"","moneySourceNameEn":null,"parentId":null},{"idNew":0,"moneySourceType":null,"amount":0,"iconId":0,"moneySourceName":"Visa **51","groupMoneySource":0,"extras":null,"id":1913083306,"userId":"0909498114","moneySourceCredit":0,"creditAvailable":0,"isDeleted":0,"iconLink":"https://img.mservice.io/momo_app_v2/new_version/All_team_/new_logo_bank/ic_visa.png","groupMoneySourceName":"","moneySourceNameEn":null,"parentId":null}],"moneySource":null,"blacklistEdit":["10000","90000","100000"]}}</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21,7 +952,7 @@
   <commentList>
     <comment ref="F4" authorId="0">
       <text>
-        <t>{"user":"0909498115","result":true,"errorCode":0,"errorDesc":"","data":{"time":1655890638367,"statusCode":200,"errorCode":0,"errorDes":null,"expenseCategories":[]}}</t>
+        <t>{"user":"0909498114","result":true,"errorCode":0,"errorDesc":"","data":{"time":1656327705134,"statusCode":200,"errorCode":0,"errorDes":null,"expenseCategories":[{"id":1,"groupName":"Khác","categoryType":null,"userId":null,"iconId":0,"parentId":0,"levelGroup":0,"iconLink":null},{"id":10,"groupName":"Cho vay","categoryType":null,"userId":null,"iconId":0,"parentId":0,"levelGroup":0,"iconLink":null}]}}</t>
       </text>
     </comment>
   </commentList>
@@ -36,7 +967,102 @@
   <commentList>
     <comment ref="F4" authorId="0">
       <text>
-        <t>{"user":"0909498115","result":true,"errorCode":0,"errorDesc":"","data":{"time":1655890638539,"statusCode":200,"errorCode":0,"errorDes":null,"moneySources":[{"idNew":0,"moneySourceType":null,"amount":20000000,"iconId":0,"moneySourceName":"Ví MoMo","groupMoneySource":0,"extras":null,"id":10000,"userId":"0909498115","moneySourceCredit":0,"creditAvailable":0,"isDeleted":0,"iconLink":"https://img.mservice.com.vn/app/img/funds_manager/logo-momo.png","groupMoneySourceName":"","moneySourceNameEn":null,"parentId":null},{"idNew":0,"moneySourceType":null,"amount":0,"iconId":0,"moneySourceName":"VietinBank","groupMoneySource":0,"extras":null,"id":20000,"userId":"0909498115","moneySourceCredit":0,"creditAvailable":0,"isDeleted":0,"iconLink":"https://img.mservice.io/momo_app_v2/new_version/All_team_/new_logo_bank/ic_vietinbank.png","groupMoneySourceName":"","moneySourceNameEn":null,"parentId":null}],"moneySource":null,"blacklistEdit":["10000","90000","100000"]}}</t>
+        <t>{"user":"0909498114","result":true,"errorCode":0,"errorDesc":"","data":{"time":1656327705335,"statusCode":200,"errorCode":0,"errorDes":null,"setting":{"settingType":"REMIND_NOTI","value":"10","userId":"0909498114","active":1}}}</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="F4" authorId="0">
+      <text>
+        <t>{"user":"0909498115","result":true,"errorCode":0,"errorDesc":"","data":{"time":1656327705475,"statusCode":200,"errorCode":0,"errorDes":null,"expenseSettings":[]}}</t>
+      </text>
+    </comment>
+    <comment ref="F6" authorId="0">
+      <text>
+        <t>{"user":"0909498114","result":true,"errorCode":0,"errorDesc":"","data":{"time":1656327705838,"statusCode":200,"errorCode":0,"errorDes":null,"expenseSettings":[{"settingType":"REMIND_NOTI","value":"10","userId":"0909498114","active":1}]}}</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="F5" authorId="0">
+      <text>
+        <t>{"user":"0909498114","result":true,"errorCode":0,"errorDesc":"","data":{"time":1656327706041,"statusCode":200,"errorCode":0,"errorDes":null,"icon":null,"name":null,"expenseCategories":null,"category":{"id":338,"groupName":"POST - Add user category - Type: IN - Group: 1","categoryType":"IN","userId":"0909498114","iconId":98,"parentId":0,"levelGroup":1,"iconLink":null},"blacklist":null}}</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="F5" authorId="0">
+      <text>
+        <t>{"user":"0909498114","result":true,"errorCode":0,"errorDesc":"","data":{"time":1656327706941,"statusCode":200,"errorCode":0,"errorDes":null,"icon":null,"name":null,"expenseCategories":null,"category":{"id":339,"groupName":"POST - Add user category - Type: IN - Group: 2 - Parent: Was Created","categoryType":"IN","userId":"0909498114","iconId":97,"parentId":338,"levelGroup":2,"iconLink":null},"blacklist":null}}</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="F5" authorId="0">
+      <text>
+        <t>{"user":"0909498114","result":true,"errorCode":0,"errorDesc":"","data":{"time":1656327707202,"statusCode":200,"errorCode":0,"errorDes":null,"icon":null,"name":null,"expenseCategories":null,"category":{"id":340,"groupName":"POST - Add user category - Type: IN - Group: 2 - Parent: Default No Subcategory","categoryType":"IN","userId":"0909498114","iconId":102,"parentId":75,"levelGroup":2,"iconLink":null},"blacklist":null}}</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="F5" authorId="0">
+      <text>
+        <t>{"user":"0909498114","result":true,"errorCode":0,"errorDesc":"","data":{"time":1656327707539,"statusCode":200,"errorCode":0,"errorDes":null,"icon":null,"name":null,"expenseCategories":null,"category":{"id":341,"groupName":"POST - Add user category - Type: IN - Group: 2 - Parent: Default Have Subcategory","categoryType":"IN","userId":"0909498114","iconId":101,"parentId":1,"levelGroup":2,"iconLink":null},"blacklist":null}}</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="F5" authorId="0">
+      <text>
+        <t>{"user":"0909498114","result":true,"errorCode":0,"errorDesc":"","data":{"time":1656327707886,"statusCode":200,"errorCode":0,"errorDes":null,"icon":null,"name":null,"expenseCategories":null,"category":{"id":342,"groupName":"POST - Add user category - Type: OUT - Group: 1","categoryType":"OUT","userId":"0909498114","iconId":103,"parentId":0,"levelGroup":1,"iconLink":null},"blacklist":null}}</t>
       </text>
     </comment>
   </commentList>
@@ -44,12 +1070,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="186">
   <si>
     <t>Report Time</t>
   </si>
   <si>
-    <t>2022-06-22T16:37:15.913702400</t>
+    <t>2022-06-27T18:01:43.761072700</t>
   </si>
   <si>
     <t>Suite Name</t>
@@ -85,22 +1111,88 @@
     <t>Details</t>
   </si>
   <si>
-    <t>GET - category p2p by config</t>
+    <t>GET - Get category p2p by config</t>
   </si>
   <si>
     <t>PASSED</t>
   </si>
   <si>
-    <t>00:00:00.828</t>
+    <t>00:00:00.512</t>
   </si>
   <si>
     <t>go to detail</t>
   </si>
   <si>
-    <t>GET - money source</t>
-  </si>
-  <si>
-    <t>00:00:00.087</t>
+    <t>POST - Edit setting</t>
+  </si>
+  <si>
+    <t>00:00:00.132</t>
+  </si>
+  <si>
+    <t>GET - Get settings</t>
+  </si>
+  <si>
+    <t>00:00:00.480</t>
+  </si>
+  <si>
+    <t>POST - Add user category - Type: IN - Group: 1</t>
+  </si>
+  <si>
+    <t>00:00:00.841</t>
+  </si>
+  <si>
+    <t>POST - Add user category - Type: IN - Group: 2 - Parent: Was Created</t>
+  </si>
+  <si>
+    <t>00:00:00.265</t>
+  </si>
+  <si>
+    <t>POST - Add user category - Type: IN - Group: 2 - Parent: Default No Subcategory</t>
+  </si>
+  <si>
+    <t>00:00:00.367</t>
+  </si>
+  <si>
+    <t>POST - Add user category - Type: IN - Group: 2 - Parent: Default Have Subcategory</t>
+  </si>
+  <si>
+    <t>00:00:00.314</t>
+  </si>
+  <si>
+    <t>POST - Add user category - Type: OUT - Group: 1</t>
+  </si>
+  <si>
+    <t>00:00:00.345</t>
+  </si>
+  <si>
+    <t>POST - Add user category - Type: OUT - Group: 2 - Parent: Was Created</t>
+  </si>
+  <si>
+    <t>00:00:00.301</t>
+  </si>
+  <si>
+    <t>POST - Add user category - Type: OUT - Group: 2 - Parent: Default No Subcategory</t>
+  </si>
+  <si>
+    <t>00:00:00.363</t>
+  </si>
+  <si>
+    <t>POST - Add user category - Type: OUT - Group: 2 - Parent: Default Have Subcategory</t>
+  </si>
+  <si>
+    <t>00:00:00.407</t>
+  </si>
+  <si>
+    <t>GET - Get user category default</t>
+  </si>
+  <si>
+    <t>00:00:00.483</t>
+  </si>
+  <si>
+    <t>GET - Get money source</t>
+  </si>
+  <si>
+    <t>00:00:00.089</t>
   </si>
   <si>
     <t>BACK TO SUMMARY</t>
@@ -128,7 +1220,7 @@
 Header:
   backend-svc: expense-api-transhis
   Accept: */*;q=0.8
-  M-Signature: Kt6i5dOhp39p9T5t85An+YoSquXzOld6/eQg0DglU+E=</t>
+  M-Signature: QqR+k2XzeAk/I6I8e7ebOXel08tepEru1WGOvgBsGgs=</t>
   </si>
   <si>
     <t>Status code of Request:
@@ -140,7 +1232,7 @@
   <si>
     <t>Response body contains: 
 {
-    "user": "0909498115",
+    "user": "0909498114",
     "result": true,
     "errorCode": 0,
     "errorDesc": "",
@@ -157,23 +1249,809 @@
     <t>See detail in comment</t>
   </si>
   <si>
+    <t>POST request to https://api.mservice.com.vn/transhis/api/expense/setting/edit
+Payload: {
+  "setting": {
+    "settingType": "REMIND_NOTI",
+    "value": "10",
+    "active": 1
+  },
+  "msgType": "UPDATE_SETTING"
+}
+Header:
+  backend-svc: expense-api-transhis
+  Accept: */*;q=0.8
+  M-Signature: QqR+k2XzeAk/I6I8e7ebOXel08tepEru1WGOvgBsGgs=
+  Content-Type: application/json</t>
+  </si>
+  <si>
+    <t>The response is contains:
+"statusCode": 200,
+        "errorCode": 0,
+        "errorDes": null,
+        "setting": {
+                "settingType": "REMIND_NOTI",
+                "value": "10",
+                "userId": "0909498114",
+                "active": 1
+            }</t>
+  </si>
+  <si>
+    <t>SapCpiTraceLogVerifier: Found expected text! See detail in comment</t>
+  </si>
+  <si>
+    <t>Verify value of 'Value' field in SQL server is corrected</t>
+  </si>
+  <si>
+    <t>The value of Query 'SELECT VALUE FROM SOAP_ADMIN.EXPENSE_MANAGEMENT_SETTINGS where user_id = '0909498114'' is
+10</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Verify 'Active' field in SQL server is corrected</t>
+  </si>
+  <si>
+    <t>The value of Query 'SELECT ACTIVE FROM SOAP_ADMIN.EXPENSE_MANAGEMENT_SETTINGS where user_id = '0909498114'' is
+1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Verify response data of default settings (New User)</t>
+  </si>
+  <si>
+    <t>GET request to https://api.mservice.com.vn/transhis/api/expense/setting
+Header:
+  backend-svc: expense-api-transhis
+  Accept: */*;q=0.8
+  M-Signature: Kt6i5dOhp39p9T5t85An+YoSquXzOld6/eQg0DglU+E=</t>
+  </si>
+  <si>
+    <t>The response is contains:
+"statusCode": 200,
+        "errorCode": 0,
+        "errorDes": null,
+        "expenseSettings": [
+        ]</t>
+  </si>
+  <si>
+    <t>GET request to https://api.mservice.com.vn/transhis/api/expense/setting
+Header:
+  backend-svc: expense-api-transhis
+  Accept: */*;q=0.8
+  M-Signature: QqR+k2XzeAk/I6I8e7ebOXel08tepEru1WGOvgBsGgs=</t>
+  </si>
+  <si>
+    <t>The response is contains:
+"statusCode": 200,
+        "errorCode": 0,
+        "errorDes": null,
+        "expenseSettings": [
+            {
+                "settingType": "REMIND_NOTI",
+                "value": "10",
+                "userId": "0909498114",
+                "active": 1
+            }
+        ]</t>
+  </si>
+  <si>
+    <t>Verify number of count setting config is corrected</t>
+  </si>
+  <si>
+    <t>The value of Query 'SELECT COUNT(*) FROM SOAP_ADMIN.EXPENSE_MANAGEMENT_SETTINGS where user_id = '0909498114'' is
+1</t>
+  </si>
+  <si>
+    <t>Verify the number of count user category before add category</t>
+  </si>
+  <si>
+    <t>The value of Query 'select COUNT(*) from SOAP_ADMIN.EXPENSE_MANAGEMENT_V2_GROUP where user_id = '0909498114'' is
+37</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>POST request to https://api.mservice.com.vn/transhis/api/expense/category
+Payload: {
+    "iconId": 98,
+    "name": "POST - Add user category - Type: IN - Group: 1",
+    "type" : "IN",
+    "parentId" : "0"
+}
+Header:
+  backend-svc: expense-api-transhis
+  Accept: */*;q=0.8
+  M-Signature: QqR+k2XzeAk/I6I8e7ebOXel08tepEru1WGOvgBsGgs=
+  Content-Type: application/json</t>
+  </si>
+  <si>
+    <t>Response body contains: 
+{
+    "user": "0909498114",
+    "result": true,
+    "errorCode": 0,
+    "errorDesc": "",
+    "data": {"time": 1656301783185,
+        "statusCode": 200,
+        "errorCode": 0,
+        "errorDes": null,
+        "icon": null,
+        "name": null,
+        "expenseCategories": null,
+        "category": {
+            "id": 338,
+            "groupName": "POST - Add user category - Type: IN - Group: 1",
+            "categoryType": "IN",
+            "userId": "0909498114",
+            "iconId": 98,
+            "parentId": 0,
+            "levelGroup": 1,
+            "iconLink": null
+        },
+        "blacklist": null    }
+}</t>
+  </si>
+  <si>
+    <t>Verify the number of count user category after add category</t>
+  </si>
+  <si>
+    <t>The value of Query 'select COUNT(*) from SOAP_ADMIN.EXPENSE_MANAGEMENT_V2_GROUP where user_id = '0909498114'' is
+38</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>Verify value of 'ID' field in SQL server is corrected</t>
+  </si>
+  <si>
+    <t>The value of Query 'SELECT MAX(ID) FROM SOAP_ADMIN.EXPENSE_MANAGEMENT_V2_GROUP where user_id = '0909498114'' is
+338</t>
+  </si>
+  <si>
+    <t>338</t>
+  </si>
+  <si>
+    <t>Verify value of 'ICON_ID' field in SQL server is corrected</t>
+  </si>
+  <si>
+    <t>The value of Query 'SELECT ICON_ID FROM SOAP_ADMIN.EXPENSE_MANAGEMENT_V2_GROUP where user_id = '0909498114' AND ID='338'' is
+98</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>Verify value of 'GROUP_NAME' field in SQL server is corrected</t>
+  </si>
+  <si>
+    <t>The value of Query 'SELECT GROUP_NAME FROM SOAP_ADMIN.EXPENSE_MANAGEMENT_V2_GROUP where user_id = '0909498114' AND ID='338'' is
+POST - Add user category - Type: IN - Group: 1</t>
+  </si>
+  <si>
+    <t>Verify value of 'CATEGORY_TYPE' field in SQL server is corrected</t>
+  </si>
+  <si>
+    <t>The value of Query 'SELECT CATEGORY_TYPE FROM SOAP_ADMIN.EXPENSE_MANAGEMENT_V2_GROUP where user_id = '0909498114' AND ID='338'' is
+IN</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>Verify value of 'PARENT_ID' field in SQL server is corrected</t>
+  </si>
+  <si>
+    <t>The value of Query 'SELECT PARENT_ID FROM SOAP_ADMIN.EXPENSE_MANAGEMENT_V2_GROUP where user_id = '0909498114' AND ID='338'' is
+0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Verify value of 'LEVEL_GROUP' field in SQL server is corrected</t>
+  </si>
+  <si>
+    <t>The value of Query 'SELECT LEVEL_GROUP FROM SOAP_ADMIN.EXPENSE_MANAGEMENT_V2_GROUP where user_id = '0909498114' AND ID='338'' is
+1</t>
+  </si>
+  <si>
+    <t>POST request to https://api.mservice.com.vn/transhis/api/expense/category
+Payload: {
+    "iconId": 97,
+    "name": "POST - Add user category - Type: IN - Group: 2 - Parent: Was Created",
+    "type" : "IN",
+    "parentId" : "338"
+}
+Header:
+  backend-svc: expense-api-transhis
+  Accept: */*;q=0.8
+  M-Signature: QqR+k2XzeAk/I6I8e7ebOXel08tepEru1WGOvgBsGgs=
+  Content-Type: application/json</t>
+  </si>
+  <si>
+    <t>Response body contains: 
+{
+    "user": "0909498114",
+    "result": true,
+    "errorCode": 0,
+    "errorDesc": "",
+    "data": {"time": 1656301783185,
+        "statusCode": 200,
+        "errorCode": 0,
+        "errorDes": null,
+        "icon": null,
+        "name": null,
+        "expenseCategories": null,
+        "category": {
+            "id": 339,
+            "groupName": "POST - Add user category - Type: IN - Group: 2 - Parent: Was Created",
+            "categoryType": "IN",
+            "userId": "0909498114",
+            "iconId": 97,
+            "parentId": 338,
+            "levelGroup": 2,
+            "iconLink": null
+        },
+        "blacklist": null    }
+}</t>
+  </si>
+  <si>
+    <t>The value of Query 'select COUNT(*) from SOAP_ADMIN.EXPENSE_MANAGEMENT_V2_GROUP where user_id = '0909498114'' is
+39</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>The value of Query 'SELECT MAX(ID) FROM SOAP_ADMIN.EXPENSE_MANAGEMENT_V2_GROUP where user_id = '0909498114'' is
+339</t>
+  </si>
+  <si>
+    <t>339</t>
+  </si>
+  <si>
+    <t>The value of Query 'SELECT ICON_ID FROM SOAP_ADMIN.EXPENSE_MANAGEMENT_V2_GROUP where user_id = '0909498114' AND ID='339'' is
+97</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>The value of Query 'SELECT GROUP_NAME FROM SOAP_ADMIN.EXPENSE_MANAGEMENT_V2_GROUP where user_id = '0909498114' AND ID='339'' is
+POST - Add user category - Type: IN - Group: 2 - Parent: Was Created</t>
+  </si>
+  <si>
+    <t>The value of Query 'SELECT CATEGORY_TYPE FROM SOAP_ADMIN.EXPENSE_MANAGEMENT_V2_GROUP where user_id = '0909498114' AND ID='339'' is
+IN</t>
+  </si>
+  <si>
+    <t>The value of Query 'SELECT PARENT_ID FROM SOAP_ADMIN.EXPENSE_MANAGEMENT_V2_GROUP where user_id = '0909498114' AND ID='339'' is
+338</t>
+  </si>
+  <si>
+    <t>The value of Query 'SELECT LEVEL_GROUP FROM SOAP_ADMIN.EXPENSE_MANAGEMENT_V2_GROUP where user_id = '0909498114' AND ID='339'' is
+2</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>POST request to https://api.mservice.com.vn/transhis/api/expense/category
+Payload: {
+    "iconId": 102,
+    "name": "POST - Add user category - Type: IN - Group: 2 - Parent: Default No Subcategory",
+    "type" : "IN",
+    "parentId" : "75"
+}
+Header:
+  backend-svc: expense-api-transhis
+  Accept: */*;q=0.8
+  M-Signature: QqR+k2XzeAk/I6I8e7ebOXel08tepEru1WGOvgBsGgs=
+  Content-Type: application/json</t>
+  </si>
+  <si>
+    <t>Response body contains: 
+{
+    "user": "0909498114",
+    "result": true,
+    "errorCode": 0,
+    "errorDesc": "",
+    "data": {"time": 1656301783185,
+        "statusCode": 200,
+        "errorCode": 0,
+        "errorDes": null,
+        "icon": null,
+        "name": null,
+        "expenseCategories": null,
+        "category": {
+            "id": 340,
+            "groupName": "POST - Add user category - Type: IN - Group: 2 - Parent: Default No Subcategory",
+            "categoryType": "IN",
+            "userId": "0909498114",
+            "iconId": 102,
+            "parentId": 75,
+            "levelGroup": 2,
+            "iconLink": null
+        },
+        "blacklist": null    }
+}</t>
+  </si>
+  <si>
+    <t>The value of Query 'select COUNT(*) from SOAP_ADMIN.EXPENSE_MANAGEMENT_V2_GROUP where user_id = '0909498114'' is
+40</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>The value of Query 'SELECT MAX(ID) FROM SOAP_ADMIN.EXPENSE_MANAGEMENT_V2_GROUP where user_id = '0909498114'' is
+340</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>The value of Query 'SELECT ICON_ID FROM SOAP_ADMIN.EXPENSE_MANAGEMENT_V2_GROUP where user_id = '0909498114' AND ID='340'' is
+102</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>The value of Query 'SELECT GROUP_NAME FROM SOAP_ADMIN.EXPENSE_MANAGEMENT_V2_GROUP where user_id = '0909498114' AND ID='340'' is
+POST - Add user category - Type: IN - Group: 2 - Parent: Default No Subcategory</t>
+  </si>
+  <si>
+    <t>The value of Query 'SELECT CATEGORY_TYPE FROM SOAP_ADMIN.EXPENSE_MANAGEMENT_V2_GROUP where user_id = '0909498114' AND ID='340'' is
+IN</t>
+  </si>
+  <si>
+    <t>The value of Query 'SELECT PARENT_ID FROM SOAP_ADMIN.EXPENSE_MANAGEMENT_V2_GROUP where user_id = '0909498114' AND ID='340'' is
+75</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>The value of Query 'SELECT LEVEL_GROUP FROM SOAP_ADMIN.EXPENSE_MANAGEMENT_V2_GROUP where user_id = '0909498114' AND ID='340'' is
+2</t>
+  </si>
+  <si>
+    <t>POST request to https://api.mservice.com.vn/transhis/api/expense/category
+Payload: {
+    "iconId": 101,
+    "name": "POST - Add user category - Type: IN - Group: 2 - Parent: Default Have Subcategory",
+    "type" : "IN",
+    "parentId" : "1"
+}
+Header:
+  backend-svc: expense-api-transhis
+  Accept: */*;q=0.8
+  M-Signature: QqR+k2XzeAk/I6I8e7ebOXel08tepEru1WGOvgBsGgs=
+  Content-Type: application/json</t>
+  </si>
+  <si>
+    <t>Response body contains: 
+{
+    "user": "0909498114",
+    "result": true,
+    "errorCode": 0,
+    "errorDesc": "",
+    "data": {"time": 1656301783185,
+        "statusCode": 200,
+        "errorCode": 0,
+        "errorDes": null,
+        "icon": null,
+        "name": null,
+        "expenseCategories": null,
+        "category": {
+            "id": 341,
+            "groupName": "POST - Add user category - Type: IN - Group: 2 - Parent: Default Have Subcategory",
+            "categoryType": "IN",
+            "userId": "0909498114",
+            "iconId": 101,
+            "parentId": 1,
+            "levelGroup": 2,
+            "iconLink": null
+        },
+        "blacklist": null    }
+}</t>
+  </si>
+  <si>
+    <t>The value of Query 'select COUNT(*) from SOAP_ADMIN.EXPENSE_MANAGEMENT_V2_GROUP where user_id = '0909498114'' is
+41</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>The value of Query 'SELECT MAX(ID) FROM SOAP_ADMIN.EXPENSE_MANAGEMENT_V2_GROUP where user_id = '0909498114'' is
+341</t>
+  </si>
+  <si>
+    <t>341</t>
+  </si>
+  <si>
+    <t>The value of Query 'SELECT ICON_ID FROM SOAP_ADMIN.EXPENSE_MANAGEMENT_V2_GROUP where user_id = '0909498114' AND ID='341'' is
+101</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>The value of Query 'SELECT GROUP_NAME FROM SOAP_ADMIN.EXPENSE_MANAGEMENT_V2_GROUP where user_id = '0909498114' AND ID='341'' is
+POST - Add user category - Type: IN - Group: 2 - Parent: Default Have Subcategory</t>
+  </si>
+  <si>
+    <t>The value of Query 'SELECT CATEGORY_TYPE FROM SOAP_ADMIN.EXPENSE_MANAGEMENT_V2_GROUP where user_id = '0909498114' AND ID='341'' is
+IN</t>
+  </si>
+  <si>
+    <t>The value of Query 'SELECT PARENT_ID FROM SOAP_ADMIN.EXPENSE_MANAGEMENT_V2_GROUP where user_id = '0909498114' AND ID='341'' is
+1</t>
+  </si>
+  <si>
+    <t>The value of Query 'SELECT LEVEL_GROUP FROM SOAP_ADMIN.EXPENSE_MANAGEMENT_V2_GROUP where user_id = '0909498114' AND ID='341'' is
+2</t>
+  </si>
+  <si>
+    <t>POST request to https://api.mservice.com.vn/transhis/api/expense/category
+Payload: {
+    "iconId": 103,
+    "name": "POST - Add user category - Type: OUT - Group: 1",
+    "type" : "OUT",
+    "parentId" : "0"
+}
+Header:
+  backend-svc: expense-api-transhis
+  Accept: */*;q=0.8
+  M-Signature: QqR+k2XzeAk/I6I8e7ebOXel08tepEru1WGOvgBsGgs=
+  Content-Type: application/json</t>
+  </si>
+  <si>
+    <t>Response body contains: 
+{
+    "user": "0909498114",
+    "result": true,
+    "errorCode": 0,
+    "errorDesc": "",
+    "data": {"time": 1656301783185,
+        "statusCode": 200,
+        "errorCode": 0,
+        "errorDes": null,
+        "icon": null,
+        "name": null,
+        "expenseCategories": null,
+        "category": {
+            "id": 342,
+            "groupName": "POST - Add user category - Type: OUT - Group: 1",
+            "categoryType": "OUT",
+            "userId": "0909498114",
+            "iconId": 103,
+            "parentId": 0,
+            "levelGroup": 1,
+            "iconLink": null
+        },
+        "blacklist": null    }
+}</t>
+  </si>
+  <si>
+    <t>The value of Query 'select COUNT(*) from SOAP_ADMIN.EXPENSE_MANAGEMENT_V2_GROUP where user_id = '0909498114'' is
+42</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>The value of Query 'SELECT MAX(ID) FROM SOAP_ADMIN.EXPENSE_MANAGEMENT_V2_GROUP where user_id = '0909498114'' is
+342</t>
+  </si>
+  <si>
+    <t>342</t>
+  </si>
+  <si>
+    <t>The value of Query 'SELECT ICON_ID FROM SOAP_ADMIN.EXPENSE_MANAGEMENT_V2_GROUP where user_id = '0909498114' AND ID='342'' is
+103</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>The value of Query 'SELECT GROUP_NAME FROM SOAP_ADMIN.EXPENSE_MANAGEMENT_V2_GROUP where user_id = '0909498114' AND ID='342'' is
+POST - Add user category - Type: OUT - Group: 1</t>
+  </si>
+  <si>
+    <t>The value of Query 'SELECT CATEGORY_TYPE FROM SOAP_ADMIN.EXPENSE_MANAGEMENT_V2_GROUP where user_id = '0909498114' AND ID='342'' is
+OUT</t>
+  </si>
+  <si>
+    <t>OUT</t>
+  </si>
+  <si>
+    <t>The value of Query 'SELECT PARENT_ID FROM SOAP_ADMIN.EXPENSE_MANAGEMENT_V2_GROUP where user_id = '0909498114' AND ID='342'' is
+0</t>
+  </si>
+  <si>
+    <t>The value of Query 'SELECT LEVEL_GROUP FROM SOAP_ADMIN.EXPENSE_MANAGEMENT_V2_GROUP where user_id = '0909498114' AND ID='342'' is
+1</t>
+  </si>
+  <si>
+    <t>POST request to https://api.mservice.com.vn/transhis/api/expense/category
+Payload: {
+    "iconId": 103,
+    "name": "POST - Add user category - Type: OUT - Group: 2 - Parent: Was Created",
+    "type" : "OUT",
+    "parentId" : "338"
+}
+Header:
+  backend-svc: expense-api-transhis
+  Accept: */*;q=0.8
+  M-Signature: QqR+k2XzeAk/I6I8e7ebOXel08tepEru1WGOvgBsGgs=
+  Content-Type: application/json</t>
+  </si>
+  <si>
+    <t>Response body contains: 
+{
+    "user": "0909498114",
+    "result": true,
+    "errorCode": 0,
+    "errorDesc": "",
+    "data": {"time": 1656301783185,
+        "statusCode": 200,
+        "errorCode": 0,
+        "errorDes": null,
+        "icon": null,
+        "name": null,
+        "expenseCategories": null,
+        "category": {
+            "id": 343,
+            "groupName": "POST - Add user category - Type: OUT - Group: 2 - Parent: Was Created",
+            "categoryType": "OUT",
+            "userId": "0909498114",
+            "iconId": 103,
+            "parentId": 338,
+            "levelGroup": 2,
+            "iconLink": null
+        },
+        "blacklist": null    }
+}</t>
+  </si>
+  <si>
+    <t>The value of Query 'select COUNT(*) from SOAP_ADMIN.EXPENSE_MANAGEMENT_V2_GROUP where user_id = '0909498114'' is
+43</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>The value of Query 'SELECT MAX(ID) FROM SOAP_ADMIN.EXPENSE_MANAGEMENT_V2_GROUP where user_id = '0909498114'' is
+343</t>
+  </si>
+  <si>
+    <t>343</t>
+  </si>
+  <si>
+    <t>The value of Query 'SELECT ICON_ID FROM SOAP_ADMIN.EXPENSE_MANAGEMENT_V2_GROUP where user_id = '0909498114' AND ID='343'' is
+103</t>
+  </si>
+  <si>
+    <t>The value of Query 'SELECT GROUP_NAME FROM SOAP_ADMIN.EXPENSE_MANAGEMENT_V2_GROUP where user_id = '0909498114' AND ID='343'' is
+POST - Add user category - Type: OUT - Group: 2 - Parent: Was Created</t>
+  </si>
+  <si>
+    <t>The value of Query 'SELECT CATEGORY_TYPE FROM SOAP_ADMIN.EXPENSE_MANAGEMENT_V2_GROUP where user_id = '0909498114' AND ID='343'' is
+OUT</t>
+  </si>
+  <si>
+    <t>The value of Query 'SELECT PARENT_ID FROM SOAP_ADMIN.EXPENSE_MANAGEMENT_V2_GROUP where user_id = '0909498114' AND ID='343'' is
+338</t>
+  </si>
+  <si>
+    <t>The value of Query 'SELECT LEVEL_GROUP FROM SOAP_ADMIN.EXPENSE_MANAGEMENT_V2_GROUP where user_id = '0909498114' AND ID='343'' is
+2</t>
+  </si>
+  <si>
+    <t>POST request to https://api.mservice.com.vn/transhis/api/expense/category
+Payload: {
+    "iconId": 103,
+    "name": "POST - Add user category - Type: OUT - Group: 2 - Parent: Default No Subcategory",
+    "type" : "OUT",
+    "parentId" : "2"
+}
+Header:
+  backend-svc: expense-api-transhis
+  Accept: */*;q=0.8
+  M-Signature: QqR+k2XzeAk/I6I8e7ebOXel08tepEru1WGOvgBsGgs=
+  Content-Type: application/json</t>
+  </si>
+  <si>
+    <t>Response body contains: 
+{
+    "user": "0909498114",
+    "result": true,
+    "errorCode": 0,
+    "errorDesc": "",
+    "data": {"time": 1656301783185,
+        "statusCode": 200,
+        "errorCode": 0,
+        "errorDes": null,
+        "icon": null,
+        "name": null,
+        "expenseCategories": null,
+        "category": {
+            "id": 344,
+            "groupName": "POST - Add user category - Type: OUT - Group: 2 - Parent: Default No Subcategory",
+            "categoryType": "OUT",
+            "userId": "0909498114",
+            "iconId": 103,
+            "parentId": 2,
+            "levelGroup": 2,
+            "iconLink": null
+        },
+        "blacklist": null    }
+}</t>
+  </si>
+  <si>
+    <t>The value of Query 'select COUNT(*) from SOAP_ADMIN.EXPENSE_MANAGEMENT_V2_GROUP where user_id = '0909498114'' is
+44</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>The value of Query 'SELECT MAX(ID) FROM SOAP_ADMIN.EXPENSE_MANAGEMENT_V2_GROUP where user_id = '0909498114'' is
+344</t>
+  </si>
+  <si>
+    <t>344</t>
+  </si>
+  <si>
+    <t>The value of Query 'SELECT ICON_ID FROM SOAP_ADMIN.EXPENSE_MANAGEMENT_V2_GROUP where user_id = '0909498114' AND ID='344'' is
+103</t>
+  </si>
+  <si>
+    <t>The value of Query 'SELECT GROUP_NAME FROM SOAP_ADMIN.EXPENSE_MANAGEMENT_V2_GROUP where user_id = '0909498114' AND ID='344'' is
+POST - Add user category - Type: OUT - Group: 2 - Parent: Default No Subcategory</t>
+  </si>
+  <si>
+    <t>The value of Query 'SELECT CATEGORY_TYPE FROM SOAP_ADMIN.EXPENSE_MANAGEMENT_V2_GROUP where user_id = '0909498114' AND ID='344'' is
+OUT</t>
+  </si>
+  <si>
+    <t>The value of Query 'SELECT PARENT_ID FROM SOAP_ADMIN.EXPENSE_MANAGEMENT_V2_GROUP where user_id = '0909498114' AND ID='344'' is
+2</t>
+  </si>
+  <si>
+    <t>The value of Query 'SELECT LEVEL_GROUP FROM SOAP_ADMIN.EXPENSE_MANAGEMENT_V2_GROUP where user_id = '0909498114' AND ID='344'' is
+2</t>
+  </si>
+  <si>
+    <t>POST request to https://api.mservice.com.vn/transhis/api/expense/category
+Payload: {
+    "iconId": 103,
+    "name": "POST - Add user category - Type: OUT - Group: 2 - Parent: Default Have Subcategory",
+    "type" : "OUT",
+    "parentId" : "3"
+}
+Header:
+  backend-svc: expense-api-transhis
+  Accept: */*;q=0.8
+  M-Signature: QqR+k2XzeAk/I6I8e7ebOXel08tepEru1WGOvgBsGgs=
+  Content-Type: application/json</t>
+  </si>
+  <si>
+    <t>Response body contains: 
+{
+    "user": "0909498114",
+    "result": true,
+    "errorCode": 0,
+    "errorDesc": "",
+    "data": {"time": 1656301783185,
+        "statusCode": 200,
+        "errorCode": 0,
+        "errorDes": null,
+        "icon": null,
+        "name": null,
+        "expenseCategories": null,
+        "category": {
+            "id": 345,
+            "groupName": "POST - Add user category - Type: OUT - Group: 2 - Parent: Default Have Subcategory",
+            "categoryType": "OUT",
+            "userId": "0909498114",
+            "iconId": 103,
+            "parentId": 3,
+            "levelGroup": 2,
+            "iconLink": null
+        },
+        "blacklist": null    }
+}</t>
+  </si>
+  <si>
+    <t>The value of Query 'select COUNT(*) from SOAP_ADMIN.EXPENSE_MANAGEMENT_V2_GROUP where user_id = '0909498114'' is
+45</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>The value of Query 'SELECT MAX(ID) FROM SOAP_ADMIN.EXPENSE_MANAGEMENT_V2_GROUP where user_id = '0909498114'' is
+345</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>The value of Query 'SELECT ICON_ID FROM SOAP_ADMIN.EXPENSE_MANAGEMENT_V2_GROUP where user_id = '0909498114' AND ID='345'' is
+103</t>
+  </si>
+  <si>
+    <t>The value of Query 'SELECT GROUP_NAME FROM SOAP_ADMIN.EXPENSE_MANAGEMENT_V2_GROUP where user_id = '0909498114' AND ID='345'' is
+POST - Add user category - Type: OUT - Group: 2 - Parent: Default Have Subcategory</t>
+  </si>
+  <si>
+    <t>The value of Query 'SELECT CATEGORY_TYPE FROM SOAP_ADMIN.EXPENSE_MANAGEMENT_V2_GROUP where user_id = '0909498114' AND ID='345'' is
+OUT</t>
+  </si>
+  <si>
+    <t>The value of Query 'SELECT PARENT_ID FROM SOAP_ADMIN.EXPENSE_MANAGEMENT_V2_GROUP where user_id = '0909498114' AND ID='345'' is
+3</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>The value of Query 'SELECT LEVEL_GROUP FROM SOAP_ADMIN.EXPENSE_MANAGEMENT_V2_GROUP where user_id = '0909498114' AND ID='345'' is
+2</t>
+  </si>
+  <si>
+    <t>Verify the number of count user category default</t>
+  </si>
+  <si>
+    <t>The value of Query 'SELECT COUNT(*) FROM SOAP_ADMIN.EXPENSE_MANAGEMENT_V2_GROUP where user_id = 'SYSTEM'' is
+84</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>GET request to https://api.mservice.com.vn/transhis/api/expense/category
+Header:
+  backend-svc: expense-api-transhis
+  Accept: */*;q=0.8
+  M-Signature: QqR+k2XzeAk/I6I8e7ebOXel08tepEru1WGOvgBsGgs=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The response is contains:
+</t>
+  </si>
+  <si>
+    <t>SapCpiMessageStatusVerifier: Found expected text! See detail in comment</t>
+  </si>
+  <si>
     <t>GET request to https://api.mservice.com.vn/transhis/api/expense/money-source
 Header:
   backend-svc: expense-api-transhis
   Accept: */*;q=0.8
-  M-Signature: Kt6i5dOhp39p9T5t85An+YoSquXzOld6/eQg0DglU+E=</t>
-  </si>
-  <si>
-    <t>{
+  M-Signature: QqR+k2XzeAk/I6I8e7ebOXel08tepEru1WGOvgBsGgs=</t>
+  </si>
+  <si>
+    <t>The response is contains:
+{
                 "idNew": 0,
                 "moneySourceType": null,
-                "amount": 20000000,
+                "amount": 58978700,
                 "iconId": 0,
                 "moneySourceName": "Ví MoMo",
                 "groupMoneySource": 0,
                 "extras": null,
                 "id": 10000,
-                "userId": "0909498115",
+                "userId": "0909498114",
                 "moneySourceCredit": 0,
                 "creditAvailable": 0,
                 "isDeleted": 0,
@@ -183,22 +2061,778 @@
                 "parentId": null
             },</t>
   </si>
-  <si>
-    <t>SapCpiTraceLogVerifier: Found expected text! See detail in comment</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="29">
+  <fonts count="161">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -425,7 +3059,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="227">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -482,13 +3116,13 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center"/>
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
@@ -498,10 +3132,13 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center"/>
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
@@ -511,13 +3148,13 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center"/>
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="26" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
@@ -527,9 +3164,501 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="50" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="54" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="58" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="6" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="62" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="66" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="6" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="70" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="74" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="6" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="78" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="82" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="6" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="86" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="90" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="6" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="94" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="98" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="6" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="102" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="106" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="6" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="110" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="114" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="6" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="118" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="122" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="6" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="126" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="130" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="6" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="134" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="138" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="6" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="142" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="146" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="6" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="150" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="154" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="6" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="158" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -540,13 +3669,57 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -580,7 +3753,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>2.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="4">
@@ -604,7 +3777,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>2.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="8">
@@ -655,6 +3828,193 @@
         <v>18</v>
       </c>
       <c r="E10" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="21" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="27" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="33" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="39" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="45" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="51" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B16" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="57" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B17" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="57" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="63" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B18" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="63" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="69" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B19" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="69" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="75" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B20" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="75" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="81" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B21" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="81" t="s">
         <v>16</v>
       </c>
     </row>
@@ -662,8 +4022,1065 @@
   <hyperlinks>
     <hyperlink location="'Case 1'!A1" ref="E9"/>
     <hyperlink location="'Case 2'!A1" ref="E10"/>
+    <hyperlink location="'Case 3'!A1" ref="E11"/>
+    <hyperlink location="'Case 4.1'!A1" ref="E12"/>
+    <hyperlink location="'Case 4.2'!A1" ref="E13"/>
+    <hyperlink location="'Case 4.3'!A1" ref="E14"/>
+    <hyperlink location="'Case 4.4'!A1" ref="E15"/>
+    <hyperlink location="'Case 4.5'!A1" ref="E16"/>
+    <hyperlink location="'Case 4.6'!A1" ref="E17"/>
+    <hyperlink location="'Case 4.7'!A1" ref="E18"/>
+    <hyperlink location="'Case 4.8'!A1" ref="E19"/>
+    <hyperlink location="'Case 5'!A1" ref="E20"/>
+    <hyperlink location="'Case 10'!A1" ref="E21"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="4.0" customWidth="true"/>
+    <col min="2" max="2" width="40.0" customWidth="true"/>
+    <col min="3" max="3" width="50.0" customWidth="true"/>
+    <col min="4" max="4" width="50.0" customWidth="true"/>
+    <col min="5" max="5" width="10.0" customWidth="true"/>
+    <col min="6" max="6" width="50.0" customWidth="true"/>
+    <col min="7" max="7" width="20.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="173" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="177" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="172" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="172" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="172" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="172" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="172" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="172" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="180" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="180" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="180"/>
+      <c r="D3" s="180" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" t="s" s="181">
+        <v>14</v>
+      </c>
+      <c r="F3" s="180" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="180" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="180" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="180" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="180" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s" s="181">
+        <v>14</v>
+      </c>
+      <c r="F4" s="180" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="180" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="180"/>
+      <c r="C5" s="180"/>
+      <c r="D5" s="180" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" t="s" s="181">
+        <v>14</v>
+      </c>
+      <c r="F5" s="180" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="180" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="180" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="180"/>
+      <c r="D6" s="180" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" t="s" s="181">
+        <v>14</v>
+      </c>
+      <c r="F6" s="180" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="180" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="180" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="180"/>
+      <c r="D7" s="180" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" t="s" s="181">
+        <v>14</v>
+      </c>
+      <c r="F7" s="180" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="180" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="180" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="180"/>
+      <c r="D8" s="180" t="s">
+        <v>150</v>
+      </c>
+      <c r="E8" t="s" s="181">
+        <v>14</v>
+      </c>
+      <c r="F8" s="180" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="180" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="180" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="180"/>
+      <c r="D9" s="180" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" t="s" s="181">
+        <v>14</v>
+      </c>
+      <c r="F9" s="180" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="180" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="180" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="180"/>
+      <c r="D10" s="180" t="s">
+        <v>152</v>
+      </c>
+      <c r="E10" t="s" s="181">
+        <v>14</v>
+      </c>
+      <c r="F10" s="180" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="180" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="180" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="180"/>
+      <c r="D11" s="180" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11" t="s" s="181">
+        <v>14</v>
+      </c>
+      <c r="F11" s="180" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="180" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="180" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="180"/>
+      <c r="D12" s="180" t="s">
+        <v>154</v>
+      </c>
+      <c r="E12" t="s" s="181">
+        <v>14</v>
+      </c>
+      <c r="F12" s="180" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="180" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B13" s="180" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="180"/>
+      <c r="D13" s="180" t="s">
+        <v>148</v>
+      </c>
+      <c r="E13" t="s" s="181">
+        <v>14</v>
+      </c>
+      <c r="F13" s="180" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="180" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B14" s="180" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="180"/>
+      <c r="D14" s="180" t="s">
+        <v>148</v>
+      </c>
+      <c r="E14" t="s" s="181">
+        <v>14</v>
+      </c>
+      <c r="F14" s="180" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink location="'Summary'!A1" ref="G1"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="4.0" customWidth="true"/>
+    <col min="2" max="2" width="40.0" customWidth="true"/>
+    <col min="3" max="3" width="50.0" customWidth="true"/>
+    <col min="4" max="4" width="50.0" customWidth="true"/>
+    <col min="5" max="5" width="10.0" customWidth="true"/>
+    <col min="6" max="6" width="50.0" customWidth="true"/>
+    <col min="7" max="7" width="20.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="184" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="188" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="183" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="183" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="183" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="183" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="183" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="183" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="191" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="191" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="191"/>
+      <c r="D3" s="191" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" t="s" s="192">
+        <v>14</v>
+      </c>
+      <c r="F3" s="191" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="191" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="191" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="191" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" s="191" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s" s="192">
+        <v>14</v>
+      </c>
+      <c r="F4" s="191" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="191" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="191"/>
+      <c r="C5" s="191"/>
+      <c r="D5" s="191" t="s">
+        <v>156</v>
+      </c>
+      <c r="E5" t="s" s="192">
+        <v>14</v>
+      </c>
+      <c r="F5" s="191" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="191" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="191" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="191"/>
+      <c r="D6" s="191" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" t="s" s="192">
+        <v>14</v>
+      </c>
+      <c r="F6" s="191" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="191" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="191" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="191"/>
+      <c r="D7" s="191" t="s">
+        <v>159</v>
+      </c>
+      <c r="E7" t="s" s="192">
+        <v>14</v>
+      </c>
+      <c r="F7" s="191" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="191" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="191" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="191"/>
+      <c r="D8" s="191" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" t="s" s="192">
+        <v>14</v>
+      </c>
+      <c r="F8" s="191" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="191" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="191" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="191"/>
+      <c r="D9" s="191" t="s">
+        <v>162</v>
+      </c>
+      <c r="E9" t="s" s="192">
+        <v>14</v>
+      </c>
+      <c r="F9" s="191" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="191" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="191" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="191"/>
+      <c r="D10" s="191" t="s">
+        <v>163</v>
+      </c>
+      <c r="E10" t="s" s="192">
+        <v>14</v>
+      </c>
+      <c r="F10" s="191" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="191" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="191" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="191"/>
+      <c r="D11" s="191" t="s">
+        <v>164</v>
+      </c>
+      <c r="E11" t="s" s="192">
+        <v>14</v>
+      </c>
+      <c r="F11" s="191" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="191" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="191" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="191"/>
+      <c r="D12" s="191" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" t="s" s="192">
+        <v>14</v>
+      </c>
+      <c r="F12" s="191" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="191" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B13" s="191" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="191"/>
+      <c r="D13" s="191" t="s">
+        <v>159</v>
+      </c>
+      <c r="E13" t="s" s="192">
+        <v>14</v>
+      </c>
+      <c r="F13" s="191" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="191" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B14" s="191" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="191"/>
+      <c r="D14" s="191" t="s">
+        <v>159</v>
+      </c>
+      <c r="E14" t="s" s="192">
+        <v>14</v>
+      </c>
+      <c r="F14" s="191" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink location="'Summary'!A1" ref="G1"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="4.0" customWidth="true"/>
+    <col min="2" max="2" width="40.0" customWidth="true"/>
+    <col min="3" max="3" width="50.0" customWidth="true"/>
+    <col min="4" max="4" width="50.0" customWidth="true"/>
+    <col min="5" max="5" width="10.0" customWidth="true"/>
+    <col min="6" max="6" width="50.0" customWidth="true"/>
+    <col min="7" max="7" width="20.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="195" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="199" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="194" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="194" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="194" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="194" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="194" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="194" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="202" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="202" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" t="s" s="203">
+        <v>14</v>
+      </c>
+      <c r="F3" s="202" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="202" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="202" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="202" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="202" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s" s="203">
+        <v>14</v>
+      </c>
+      <c r="F4" s="202" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="202" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="202"/>
+      <c r="C5" s="202"/>
+      <c r="D5" s="202" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" t="s" s="203">
+        <v>14</v>
+      </c>
+      <c r="F5" s="202" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="202" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="202" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="202"/>
+      <c r="D6" s="202" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" t="s" s="203">
+        <v>14</v>
+      </c>
+      <c r="F6" s="202" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="202" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="202" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="202"/>
+      <c r="D7" s="202" t="s">
+        <v>170</v>
+      </c>
+      <c r="E7" t="s" s="203">
+        <v>14</v>
+      </c>
+      <c r="F7" s="202" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="202" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="202" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="202"/>
+      <c r="D8" s="202" t="s">
+        <v>172</v>
+      </c>
+      <c r="E8" t="s" s="203">
+        <v>14</v>
+      </c>
+      <c r="F8" s="202" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="202" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="202" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="202"/>
+      <c r="D9" s="202" t="s">
+        <v>173</v>
+      </c>
+      <c r="E9" t="s" s="203">
+        <v>14</v>
+      </c>
+      <c r="F9" s="202" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="202" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="202" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="202"/>
+      <c r="D10" s="202" t="s">
+        <v>174</v>
+      </c>
+      <c r="E10" t="s" s="203">
+        <v>14</v>
+      </c>
+      <c r="F10" s="202" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="202" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="202" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="202"/>
+      <c r="D11" s="202" t="s">
+        <v>175</v>
+      </c>
+      <c r="E11" t="s" s="203">
+        <v>14</v>
+      </c>
+      <c r="F11" s="202" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="202" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="202" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="202"/>
+      <c r="D12" s="202" t="s">
+        <v>177</v>
+      </c>
+      <c r="E12" t="s" s="203">
+        <v>14</v>
+      </c>
+      <c r="F12" s="202" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="202" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B13" s="202" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="202"/>
+      <c r="D13" s="202" t="s">
+        <v>170</v>
+      </c>
+      <c r="E13" t="s" s="203">
+        <v>14</v>
+      </c>
+      <c r="F13" s="202" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="202" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B14" s="202" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="202"/>
+      <c r="D14" s="202" t="s">
+        <v>170</v>
+      </c>
+      <c r="E14" t="s" s="203">
+        <v>14</v>
+      </c>
+      <c r="F14" s="202" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink location="'Summary'!A1" ref="G1"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="4.0" customWidth="true"/>
+    <col min="2" max="2" width="40.0" customWidth="true"/>
+    <col min="3" max="3" width="50.0" customWidth="true"/>
+    <col min="4" max="4" width="50.0" customWidth="true"/>
+    <col min="5" max="5" width="10.0" customWidth="true"/>
+    <col min="6" max="6" width="50.0" customWidth="true"/>
+    <col min="7" max="7" width="20.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="206" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="210" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="205" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="205" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="205" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="205" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="205" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="205" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="213" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="213" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="213"/>
+      <c r="D3" s="213" t="s">
+        <v>179</v>
+      </c>
+      <c r="E3" t="s" s="214">
+        <v>14</v>
+      </c>
+      <c r="F3" s="213" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="213" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="213" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="213" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4" s="213" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s" s="214">
+        <v>14</v>
+      </c>
+      <c r="F4" s="213" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="213" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="213"/>
+      <c r="C5" s="213"/>
+      <c r="D5" s="213" t="s">
+        <v>182</v>
+      </c>
+      <c r="E5" t="s" s="214">
+        <v>14</v>
+      </c>
+      <c r="F5" s="213" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="213" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="213" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="213"/>
+      <c r="D6" s="213" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" t="s" s="214">
+        <v>14</v>
+      </c>
+      <c r="F6" s="213" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink location="'Summary'!A1" ref="G1"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="4.0" customWidth="true"/>
+    <col min="2" max="2" width="40.0" customWidth="true"/>
+    <col min="3" max="3" width="50.0" customWidth="true"/>
+    <col min="4" max="4" width="50.0" customWidth="true"/>
+    <col min="5" max="5" width="10.0" customWidth="true"/>
+    <col min="6" max="6" width="50.0" customWidth="true"/>
+    <col min="7" max="7" width="20.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="217" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="221" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="216" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="216" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="216" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="216" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="216" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="216" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="224" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="224" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="224" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" s="224" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s" s="225">
+        <v>14</v>
+      </c>
+      <c r="F3" s="224" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="224" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="224"/>
+      <c r="C4" s="224"/>
+      <c r="D4" s="224" t="s">
+        <v>185</v>
+      </c>
+      <c r="E4" t="s" s="225">
+        <v>14</v>
+      </c>
+      <c r="F4" s="224" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink location="'Summary'!A1" ref="G1"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -685,67 +5102,67 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="23" t="s">
-        <v>19</v>
+      <c r="G1" s="89" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="18" t="s">
+      <c r="A2" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="84" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="18" t="s">
-        <v>24</v>
+      <c r="F2" s="84" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="26" t="n">
+      <c r="A3" s="92" t="n">
         <v>1.0</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s" s="27">
-        <v>14</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>28</v>
+      <c r="B3" s="92" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s" s="93">
+        <v>14</v>
+      </c>
+      <c r="F3" s="92" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="26" t="n">
+      <c r="A4" s="92" t="n">
         <v>2.0</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s" s="27">
-        <v>14</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>30</v>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" t="s" s="93">
+        <v>14</v>
+      </c>
+      <c r="F4" s="92" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -763,7 +5180,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -779,67 +5196,1621 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="100" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="95" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="95" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="95" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="95" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="95" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="103" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="103" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="103" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="103" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s" s="104">
+        <v>14</v>
+      </c>
+      <c r="F3" s="103" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="103" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" t="s" s="104">
+        <v>14</v>
+      </c>
+      <c r="F4" s="103" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="103" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="103" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" t="s" s="104">
+        <v>14</v>
+      </c>
+      <c r="F5" s="103" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="103" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="103" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" t="s" s="104">
+        <v>14</v>
+      </c>
+      <c r="F6" s="103" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink location="'Summary'!A1" ref="G1"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="4.0" customWidth="true"/>
+    <col min="2" max="2" width="40.0" customWidth="true"/>
+    <col min="3" max="3" width="50.0" customWidth="true"/>
+    <col min="4" max="4" width="50.0" customWidth="true"/>
+    <col min="5" max="5" width="10.0" customWidth="true"/>
+    <col min="6" max="6" width="50.0" customWidth="true"/>
+    <col min="7" max="7" width="20.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="107" t="s">
         <v>19</v>
       </c>
+      <c r="G1" s="111" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="29" t="s">
+      <c r="A2" s="106" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="106" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="106" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="106" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="106" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="114" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="114" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="114" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="114" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s" s="115">
+        <v>14</v>
+      </c>
+      <c r="F3" s="114" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="114" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" t="s" s="115">
+        <v>14</v>
+      </c>
+      <c r="F4" s="114" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="114" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="114" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="114" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="114" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s" s="115">
+        <v>14</v>
+      </c>
+      <c r="F5" s="114" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="114" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="114"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" t="s" s="115">
+        <v>14</v>
+      </c>
+      <c r="F6" s="114" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="114" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="114" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" t="s" s="115">
+        <v>14</v>
+      </c>
+      <c r="F7" s="114" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink location="'Summary'!A1" ref="G1"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="4.0" customWidth="true"/>
+    <col min="2" max="2" width="40.0" customWidth="true"/>
+    <col min="3" max="3" width="50.0" customWidth="true"/>
+    <col min="4" max="4" width="50.0" customWidth="true"/>
+    <col min="5" max="5" width="10.0" customWidth="true"/>
+    <col min="6" max="6" width="50.0" customWidth="true"/>
+    <col min="7" max="7" width="20.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="29" t="s">
+      <c r="G1" s="122" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="117" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="117" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="117" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="117" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="117" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="117" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="125" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="125" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" t="s" s="126">
+        <v>14</v>
+      </c>
+      <c r="F3" s="125" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="125" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="125" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="125" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="125" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s" s="126">
+        <v>14</v>
+      </c>
+      <c r="F4" s="125" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="125" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" t="s" s="126">
+        <v>14</v>
+      </c>
+      <c r="F5" s="125" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="125" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="125" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" t="s" s="126">
+        <v>14</v>
+      </c>
+      <c r="F6" s="125" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="125" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="125" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" t="s" s="126">
+        <v>14</v>
+      </c>
+      <c r="F7" s="125" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="125" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="125" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="125"/>
+      <c r="D8" s="125" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" t="s" s="126">
+        <v>14</v>
+      </c>
+      <c r="F8" s="125" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="125" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="125" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="125"/>
+      <c r="D9" s="125" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" t="s" s="126">
+        <v>14</v>
+      </c>
+      <c r="F9" s="125" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="125" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="125" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" t="s" s="126">
+        <v>14</v>
+      </c>
+      <c r="F10" s="125" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="125" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="125" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" t="s" s="126">
+        <v>14</v>
+      </c>
+      <c r="F11" s="125" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="125" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="125" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" t="s" s="126">
+        <v>14</v>
+      </c>
+      <c r="F12" s="125" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="125" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B13" s="125" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="125"/>
+      <c r="D13" s="125" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" t="s" s="126">
+        <v>14</v>
+      </c>
+      <c r="F13" s="125" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="125" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B14" s="125" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" t="s" s="126">
+        <v>14</v>
+      </c>
+      <c r="F14" s="125" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink location="'Summary'!A1" ref="G1"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="4.0" customWidth="true"/>
+    <col min="2" max="2" width="40.0" customWidth="true"/>
+    <col min="3" max="3" width="50.0" customWidth="true"/>
+    <col min="4" max="4" width="50.0" customWidth="true"/>
+    <col min="5" max="5" width="10.0" customWidth="true"/>
+    <col min="6" max="6" width="50.0" customWidth="true"/>
+    <col min="7" max="7" width="20.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="129" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="G1" s="133" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="128" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="128" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="128" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="128" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="29" t="s">
-        <v>24</v>
+      <c r="F2" s="128" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="37" t="n">
+      <c r="A3" s="136" t="n">
         <v>1.0</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="136" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s" s="137">
+        <v>14</v>
+      </c>
+      <c r="F3" s="136" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="136" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="136" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="136" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="136" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s" s="137">
+        <v>14</v>
+      </c>
+      <c r="F4" s="136" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="136" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="136"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="136" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" t="s" s="137">
+        <v>14</v>
+      </c>
+      <c r="F5" s="136" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="136" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="136" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="136"/>
+      <c r="D6" s="136" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" t="s" s="137">
+        <v>14</v>
+      </c>
+      <c r="F6" s="136" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="136" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="136" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" t="s" s="137">
+        <v>14</v>
+      </c>
+      <c r="F7" s="136" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="136" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="136" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="136"/>
+      <c r="D8" s="136" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" t="s" s="137">
+        <v>14</v>
+      </c>
+      <c r="F8" s="136" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="136" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="136" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="136"/>
+      <c r="D9" s="136" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" t="s" s="137">
+        <v>14</v>
+      </c>
+      <c r="F9" s="136" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="136" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="136" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="136"/>
+      <c r="D10" s="136" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" t="s" s="137">
+        <v>14</v>
+      </c>
+      <c r="F10" s="136" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="136" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="136" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="136"/>
+      <c r="D11" s="136" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" t="s" s="137">
+        <v>14</v>
+      </c>
+      <c r="F11" s="136" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="136" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="136" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="136"/>
+      <c r="D12" s="136" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" t="s" s="137">
+        <v>14</v>
+      </c>
+      <c r="F12" s="136" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="136" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B13" s="136" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="136"/>
+      <c r="D13" s="136" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" t="s" s="137">
+        <v>14</v>
+      </c>
+      <c r="F13" s="136" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="136" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B14" s="136" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="136"/>
+      <c r="D14" s="136" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" t="s" s="137">
+        <v>14</v>
+      </c>
+      <c r="F14" s="136" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink location="'Summary'!A1" ref="G1"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="4.0" customWidth="true"/>
+    <col min="2" max="2" width="40.0" customWidth="true"/>
+    <col min="3" max="3" width="50.0" customWidth="true"/>
+    <col min="4" max="4" width="50.0" customWidth="true"/>
+    <col min="5" max="5" width="10.0" customWidth="true"/>
+    <col min="6" max="6" width="50.0" customWidth="true"/>
+    <col min="7" max="7" width="20.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="140" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="37" t="s">
+      <c r="G1" s="144" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="139" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="139" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="139" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="139" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="139" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="139" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="147" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="147" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" t="s" s="148">
+        <v>14</v>
+      </c>
+      <c r="F3" s="147" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="147" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="147" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="147" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="147" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s" s="148">
+        <v>14</v>
+      </c>
+      <c r="F4" s="147" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="147" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="147"/>
+      <c r="C5" s="147"/>
+      <c r="D5" s="147" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" t="s" s="148">
+        <v>14</v>
+      </c>
+      <c r="F5" s="147" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="147" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="147" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="147"/>
+      <c r="D6" s="147" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" t="s" s="148">
+        <v>14</v>
+      </c>
+      <c r="F6" s="147" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="147" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="147" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="147"/>
+      <c r="D7" s="147" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" t="s" s="148">
+        <v>14</v>
+      </c>
+      <c r="F7" s="147" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="147" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="147" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="147"/>
+      <c r="D8" s="147" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" t="s" s="148">
+        <v>14</v>
+      </c>
+      <c r="F8" s="147" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="147" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="147" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="147"/>
+      <c r="D9" s="147" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" t="s" s="148">
+        <v>14</v>
+      </c>
+      <c r="F9" s="147" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="147" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="147" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="147"/>
+      <c r="D10" s="147" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" t="s" s="148">
+        <v>14</v>
+      </c>
+      <c r="F10" s="147" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="147" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="147" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="147"/>
+      <c r="D11" s="147" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" t="s" s="148">
+        <v>14</v>
+      </c>
+      <c r="F11" s="147" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="147" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="147" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="147"/>
+      <c r="D12" s="147" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" t="s" s="148">
+        <v>14</v>
+      </c>
+      <c r="F12" s="147" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="147" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B13" s="147" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="147"/>
+      <c r="D13" s="147" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" t="s" s="148">
+        <v>14</v>
+      </c>
+      <c r="F13" s="147" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="147" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B14" s="147" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="147"/>
+      <c r="D14" s="147" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" t="s" s="148">
+        <v>14</v>
+      </c>
+      <c r="F14" s="147" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink location="'Summary'!A1" ref="G1"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="4.0" customWidth="true"/>
+    <col min="2" max="2" width="40.0" customWidth="true"/>
+    <col min="3" max="3" width="50.0" customWidth="true"/>
+    <col min="4" max="4" width="50.0" customWidth="true"/>
+    <col min="5" max="5" width="10.0" customWidth="true"/>
+    <col min="6" max="6" width="50.0" customWidth="true"/>
+    <col min="7" max="7" width="20.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="E3" t="s" s="38">
-        <v>14</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>28</v>
+      <c r="G1" s="155" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="150" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="150" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="150" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="150" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="150" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="150" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="158" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="158" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" t="s" s="159">
+        <v>14</v>
+      </c>
+      <c r="F3" s="158" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="37" t="n">
+      <c r="A4" s="158" t="n">
         <v>2.0</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s" s="38">
-        <v>14</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>33</v>
+      <c r="B4" s="158" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="158" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="158" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s" s="159">
+        <v>14</v>
+      </c>
+      <c r="F4" s="158" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="158" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="158"/>
+      <c r="C5" s="158"/>
+      <c r="D5" s="158" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" t="s" s="159">
+        <v>14</v>
+      </c>
+      <c r="F5" s="158" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="158" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="158" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="158"/>
+      <c r="D6" s="158" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" t="s" s="159">
+        <v>14</v>
+      </c>
+      <c r="F6" s="158" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="158" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="158" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="158"/>
+      <c r="D7" s="158" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" t="s" s="159">
+        <v>14</v>
+      </c>
+      <c r="F7" s="158" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="158" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="158" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="158"/>
+      <c r="D8" s="158" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" t="s" s="159">
+        <v>14</v>
+      </c>
+      <c r="F8" s="158" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="158" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="158" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="158"/>
+      <c r="D9" s="158" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" t="s" s="159">
+        <v>14</v>
+      </c>
+      <c r="F9" s="158" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="158" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="158" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="158"/>
+      <c r="D10" s="158" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" t="s" s="159">
+        <v>14</v>
+      </c>
+      <c r="F10" s="158" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="158" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="158" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="158"/>
+      <c r="D11" s="158" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" t="s" s="159">
+        <v>14</v>
+      </c>
+      <c r="F11" s="158" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="158" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="158" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="158"/>
+      <c r="D12" s="158" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" t="s" s="159">
+        <v>14</v>
+      </c>
+      <c r="F12" s="158" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="158" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B13" s="158" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="158"/>
+      <c r="D13" s="158" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" t="s" s="159">
+        <v>14</v>
+      </c>
+      <c r="F13" s="158" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="158" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B14" s="158" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="158"/>
+      <c r="D14" s="158" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" t="s" s="159">
+        <v>14</v>
+      </c>
+      <c r="F14" s="158" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink location="'Summary'!A1" ref="G1"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="4.0" customWidth="true"/>
+    <col min="2" max="2" width="40.0" customWidth="true"/>
+    <col min="3" max="3" width="50.0" customWidth="true"/>
+    <col min="4" max="4" width="50.0" customWidth="true"/>
+    <col min="5" max="5" width="10.0" customWidth="true"/>
+    <col min="6" max="6" width="50.0" customWidth="true"/>
+    <col min="7" max="7" width="20.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="162" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="166" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="161" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="161" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="161" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="161" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="161" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="161" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="169" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="169" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" t="s" s="170">
+        <v>14</v>
+      </c>
+      <c r="F3" s="169" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="169" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="169" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="169" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="169" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s" s="170">
+        <v>14</v>
+      </c>
+      <c r="F4" s="169" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="169" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="169"/>
+      <c r="C5" s="169"/>
+      <c r="D5" s="169" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" t="s" s="170">
+        <v>14</v>
+      </c>
+      <c r="F5" s="169" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="169" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="169" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="169"/>
+      <c r="D6" s="169" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" t="s" s="170">
+        <v>14</v>
+      </c>
+      <c r="F6" s="169" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="169" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="169" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="169"/>
+      <c r="D7" s="169" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" t="s" s="170">
+        <v>14</v>
+      </c>
+      <c r="F7" s="169" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="169" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="169" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="169"/>
+      <c r="D8" s="169" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" t="s" s="170">
+        <v>14</v>
+      </c>
+      <c r="F8" s="169" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="169" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="169" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="169"/>
+      <c r="D9" s="169" t="s">
+        <v>139</v>
+      </c>
+      <c r="E9" t="s" s="170">
+        <v>14</v>
+      </c>
+      <c r="F9" s="169" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="169" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="169" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="169"/>
+      <c r="D10" s="169" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" t="s" s="170">
+        <v>14</v>
+      </c>
+      <c r="F10" s="169" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="169" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="169" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="169"/>
+      <c r="D11" s="169" t="s">
+        <v>142</v>
+      </c>
+      <c r="E11" t="s" s="170">
+        <v>14</v>
+      </c>
+      <c r="F11" s="169" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="169" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="169" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="169"/>
+      <c r="D12" s="169" t="s">
+        <v>143</v>
+      </c>
+      <c r="E12" t="s" s="170">
+        <v>14</v>
+      </c>
+      <c r="F12" s="169" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="169" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B13" s="169" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="169"/>
+      <c r="D13" s="169" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" t="s" s="170">
+        <v>14</v>
+      </c>
+      <c r="F13" s="169" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="169" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B14" s="169" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="169"/>
+      <c r="D14" s="169" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" t="s" s="170">
+        <v>14</v>
+      </c>
+      <c r="F14" s="169" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/test-output/QLCT_Regression_Test.xlsx
+++ b/test-output/QLCT_Regression_Test.xlsx
@@ -7,8 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Summary" r:id="rId3" sheetId="1"/>
-    <sheet name="Case 13.1" r:id="rId4" sheetId="2"/>
-    <sheet name="Case 13.2" r:id="rId5" sheetId="3"/>
+    <sheet name="Case 1" r:id="rId4" sheetId="2"/>
+    <sheet name="Case 18.1" r:id="rId5" sheetId="3"/>
+    <sheet name="Case 18.2" r:id="rId6" sheetId="4"/>
+    <sheet name="Case 18.3" r:id="rId7" sheetId="5"/>
+    <sheet name="Case 18.4" r:id="rId8" sheetId="6"/>
+    <sheet name="Case 18.5" r:id="rId9" sheetId="7"/>
+    <sheet name="Case 18.6" r:id="rId10" sheetId="8"/>
   </sheets>
 </workbook>
 </file>
@@ -19,9 +24,9 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="F5" authorId="0">
+    <comment ref="F4" authorId="0">
       <text>
-        <t>{"user":"0909498114","result":true,"errorCode":0,"errorDesc":"","data":{"time":1656666004133,"statusCode":200,"errorCode":0,"errorDes":null,"transaction":{"expenseType":0,"sourceFrom":0,"userId":null,"categoryId":0,"moneySourceId":0,"notes":null,"amount":null,"customTime":null,"transCate":null,"transId":-517820}}}</t>
+        <t>{"user":"0909498114","result":true,"errorCode":0,"errorDesc":"","data":{"time":1656932308798,"statusCode":200,"errorCode":0,"errorDes":null,"expenseCategories":[{"id":1,"groupName":"Khác","categoryType":null,"userId":null,"iconId":0,"parentId":0,"levelGroup":0,"iconLink":null},{"id":10,"groupName":"Cho vay","categoryType":null,"userId":null,"iconId":0,"parentId":0,"levelGroup":0,"iconLink":null}]}}</t>
       </text>
     </comment>
   </commentList>
@@ -34,22 +39,97 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="F5" authorId="0">
+    <comment ref="F4" authorId="0">
       <text>
-        <t>{"user":"0909498114","result":true,"errorCode":0,"errorDesc":"","data":{"time":1656666005253,"statusCode":200,"errorCode":0,"errorDes":null,"transaction":{"expenseType":0,"sourceFrom":0,"userId":null,"categoryId":0,"moneySourceId":0,"notes":null,"amount":null,"customTime":null,"transCate":null,"transId":-517824}}}</t>
+        <t>{"user":"0909498114","result":true,"errorCode":0,"errorDesc":"","data":{"time":1656932308928,"statusCode":200,"errorCode":0,"errorDes":null,"totalAmount":801534,"listCategory":[{"userId":"0909498114","category":17,"month":null,"numberTrans":2,"totalAmount":128000,"percent":15.97,"categoryName":"Kinh doanh"},{"userId":"0909498114","category":319,"month":null,"numberTrans":2,"totalAmount":103000,"percent":12.85,"categoryName":"Add Category for test max IN is number: 14"},{"userId":"0909498114","category":64,"month":null,"numberTrans":1,"totalAmount":86000,"percent":10.73,"categoryName":"Internet"},{"userId":"0909498114","category":315,"month":null,"numberTrans":1,"totalAmount":74000,"percent":9.23,"categoryName":"Add Category for test max IN is number: 10"},{"userId":"0909498114","category":314,"month":null,"numberTrans":1,"totalAmount":64000,"percent":7.98,"categoryName":"Add Category for test max IN is number: 9"},{"userId":"0909498114","category":4,"month":null,"numberTrans":1,"totalAmount":63000,"percent":7.86,"categoryName":"Sức khỏe"},{"userId":"0909498114","category":57,"month":null,"numberTrans":1,"totalAmount":46000,"percent":5.74,"categoryName":"Vui chơi, giải trí"},{"userId":"0909498114","category":306,"month":null,"numberTrans":2,"totalAmount":40000,"percent":4.99,"categoryName":"POST - Add user category - Type: OUT - Group: 2 - Parent: User Created"},{"userId":"0909498114","category":2,"month":null,"numberTrans":2,"totalAmount":40000,"percent":4.99,"categoryName":"Khác"},{"userId":"0909498114","category":318,"month":null,"numberTrans":1,"totalAmount":35000,"percent":4.37,"categoryName":"Add Category for test max IN is number: 13"},{"userId":"0909498114","category":309,"month":null,"numberTrans":29,"totalAmount":30314,"percent":3.78,"categoryName":"Add Category for test max IN is number: 4"},{"userId":"0909498114","category":325,"month":null,"numberTrans":29,"totalAmount":30220,"percent":3.77,"categoryName":"Add Category for test max OUT is number: 5"},{"userId":"0909498114","category":301,"month":null,"numberTrans":2,"totalAmount":30000,"percent":3.74,"categoryName":"POST - Add user category - Type: IN - Group: 1"},{"userId":"0909498114","category":308,"month":null,"numberTrans":1,"totalAmount":20000,"percent":2.5,"categoryName":"POST - Add user category - Type: OUT - Group: 2 - Parent: Default Have Subcategory"},{"userId":"0909498114","category":302,"month":null,"numberTrans":1,"totalAmount":12000,"percent":1.5,"categoryName":"POST - Add user category - Type: IN - Group: 2 - Parent: User Created"}]}}</t>
       </text>
     </comment>
   </commentList>
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="F4" authorId="0">
+      <text>
+        <t>{"user":"0909498114","result":true,"errorCode":0,"errorDesc":"","data":{"time":1656932309292,"statusCode":200,"errorCode":0,"errorDes":null,"totalAmount":831534,"listCategory":[{"userId":"0909498114","category":17,"month":"07/2022","numberTrans":2,"totalAmount":128000,"percent":170.88,"categoryName":"Kinh doanh"},{"userId":"0909498114","category":64,"month":"07/2022","numberTrans":1,"totalAmount":86000,"percent":114.81,"categoryName":"Internet"},{"userId":"0909498114","category":4,"month":"07/2022","numberTrans":1,"totalAmount":63000,"percent":84.11,"categoryName":"Sức khỏe"},{"userId":"0909498114","category":57,"month":"07/2022","numberTrans":1,"totalAmount":46000,"percent":61.41,"categoryName":"Vui chơi, giải trí"},{"userId":"0909498114","category":2,"month":"07/2022","numberTrans":2,"totalAmount":40000,"percent":53.4,"categoryName":"Khác"},{"userId":"0909498114","category":306,"month":"07/2022","numberTrans":2,"totalAmount":40000,"percent":53.4,"categoryName":"POST - Add user category - Type: OUT - Group: 2 - Parent: User Created"},{"userId":"0909498114","category":325,"month":"07/2022","numberTrans":29,"totalAmount":30220,"percent":40.34,"categoryName":"Add Category for test max OUT is number: 5"},{"userId":"0909498114","category":308,"month":"07/2022","numberTrans":1,"totalAmount":20000,"percent":26.7,"categoryName":"POST - Add user category - Type: OUT - Group: 2 - Parent: Default Have Subcategory"},{"userId":"0909498114","category":302,"month":"07/2022","numberTrans":1,"totalAmount":12000,"percent":-16.02,"categoryName":"POST - Add user category - Type: IN - Group: 2 - Parent: User Created"},{"userId":"0909498114","category":75,"month":"07/2022","numberTrans":2,"totalAmount":30000,"percent":-40.05,"categoryName":"Thu hồi nợ"},{"userId":"0909498114","category":301,"month":"07/2022","numberTrans":2,"totalAmount":30000,"percent":-40.05,"categoryName":"POST - Add user category - Type: IN - Group: 1"},{"userId":"0909498114","category":309,"month":"07/2022","numberTrans":29,"totalAmount":30314,"percent":-40.47,"categoryName":"Add Category for test max IN is number: 4"},{"userId":"0909498114","category":318,"month":"07/2022","numberTrans":1,"totalAmount":35000,"percent":-46.73,"categoryName":"Add Category for test max IN is number: 13"},{"userId":"0909498114","category":314,"month":"07/2022","numberTrans":1,"totalAmount":64000,"percent":-85.44,"categoryName":"Add Category for test max IN is number: 9"},{"userId":"0909498114","category":315,"month":"07/2022","numberTrans":1,"totalAmount":74000,"percent":-98.79,"categoryName":"Add Category for test max IN is number: 10"},{"userId":"0909498114","category":319,"month":"07/2022","numberTrans":2,"totalAmount":103000,"percent":-137.51,"categoryName":"Add Category for test max IN is number: 14"}]}}</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="F4" authorId="0">
+      <text>
+        <t>{"user":"0909498114","result":true,"errorCode":0,"errorDesc":"","data":{"time":1656932310041,"statusCode":200,"errorCode":0,"errorDes":null,"totalAmount":871534,"listCategory":[{"userId":"0909498114","category":17,"month":null,"numberTrans":2,"totalAmount":128000,"percent":14.69,"categoryName":"Kinh doanh"},{"userId":"0909498114","category":319,"month":null,"numberTrans":2,"totalAmount":103000,"percent":11.82,"categoryName":"Add Category for test max IN is number: 14"},{"userId":"0909498114","category":64,"month":null,"numberTrans":1,"totalAmount":86000,"percent":9.87,"categoryName":"Internet"},{"userId":"0909498114","category":315,"month":null,"numberTrans":1,"totalAmount":74000,"percent":8.49,"categoryName":"Add Category for test max IN is number: 10"},{"userId":"0909498114","category":314,"month":null,"numberTrans":1,"totalAmount":64000,"percent":7.34,"categoryName":"Add Category for test max IN is number: 9"},{"userId":"0909498114","category":4,"month":null,"numberTrans":1,"totalAmount":63000,"percent":7.23,"categoryName":"Sức khỏe"},{"userId":"0909498114","category":57,"month":null,"numberTrans":1,"totalAmount":46000,"percent":5.28,"categoryName":"Vui chơi, giải trí"},{"userId":"0909498114","category":305,"month":null,"numberTrans":2,"totalAmount":40000,"percent":4.59,"categoryName":"POST - Add user category - Type: OUT - Group: 1"},{"userId":"0909498114","category":306,"month":null,"numberTrans":2,"totalAmount":40000,"percent":4.59,"categoryName":"POST - Add user category - Type: OUT - Group: 2 - Parent: User Created"},{"userId":"0909498114","category":2,"month":null,"numberTrans":2,"totalAmount":40000,"percent":4.59,"categoryName":"Khác"},{"userId":"0909498114","category":318,"month":null,"numberTrans":1,"totalAmount":35000,"percent":4.02,"categoryName":"Add Category for test max IN is number: 13"},{"userId":"0909498114","category":309,"month":null,"numberTrans":29,"totalAmount":30314,"percent":3.48,"categoryName":"Add Category for test max IN is number: 4"},{"userId":"0909498114","category":325,"month":null,"numberTrans":29,"totalAmount":30220,"percent":3.47,"categoryName":"Add Category for test max OUT is number: 5"},{"userId":"0909498114","category":301,"month":null,"numberTrans":2,"totalAmount":30000,"percent":3.44,"categoryName":"POST - Add user category - Type: IN - Group: 1"},{"userId":"0909498114","category":75,"month":null,"numberTrans":2,"totalAmount":30000,"percent":3.44,"categoryName":"Thu hồi nợ"},{"userId":"0909498114","category":308,"month":null,"numberTrans":1,"totalAmount":20000,"percent":2.29,"categoryName":"POST - Add user category - Type: OUT - Group: 2 - Parent: Default Have Subcategory"},{"userId":"0909498114","category":302,"month":null,"numberTrans":1,"totalAmount":12000,"percent":1.38,"categoryName":"POST - Add user category - Type: IN - Group: 2 - Parent: User Created"}]}}</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="F4" authorId="0">
+      <text>
+        <t>{"user":"0909498114","result":true,"errorCode":0,"errorDesc":"","data":{"time":1656932310552,"statusCode":200,"errorCode":0,"errorDes":null,"totalAmount":801534,"listCategory":[{"userId":"0909498114","category":17,"month":null,"numberTrans":2,"totalAmount":128000,"percent":15.97,"categoryName":"Kinh doanh"},{"userId":"0909498114","category":319,"month":null,"numberTrans":2,"totalAmount":103000,"percent":12.85,"categoryName":"Add Category for test max IN is number: 14"},{"userId":"0909498114","category":64,"month":null,"numberTrans":1,"totalAmount":86000,"percent":10.73,"categoryName":"Internet"},{"userId":"0909498114","category":315,"month":null,"numberTrans":1,"totalAmount":74000,"percent":9.23,"categoryName":"Add Category for test max IN is number: 10"},{"userId":"0909498114","category":314,"month":null,"numberTrans":1,"totalAmount":64000,"percent":7.98,"categoryName":"Add Category for test max IN is number: 9"},{"userId":"0909498114","category":4,"month":null,"numberTrans":1,"totalAmount":63000,"percent":7.86,"categoryName":"Sức khỏe"},{"userId":"0909498114","category":57,"month":null,"numberTrans":1,"totalAmount":46000,"percent":5.74,"categoryName":"Vui chơi, giải trí"},{"userId":"0909498114","category":306,"month":null,"numberTrans":2,"totalAmount":40000,"percent":4.99,"categoryName":"POST - Add user category - Type: OUT - Group: 2 - Parent: User Created"},{"userId":"0909498114","category":2,"month":null,"numberTrans":2,"totalAmount":40000,"percent":4.99,"categoryName":"Khác"},{"userId":"0909498114","category":318,"month":null,"numberTrans":1,"totalAmount":35000,"percent":4.37,"categoryName":"Add Category for test max IN is number: 13"},{"userId":"0909498114","category":309,"month":null,"numberTrans":29,"totalAmount":30314,"percent":3.78,"categoryName":"Add Category for test max IN is number: 4"},{"userId":"0909498114","category":325,"month":null,"numberTrans":29,"totalAmount":30220,"percent":3.77,"categoryName":"Add Category for test max OUT is number: 5"},{"userId":"0909498114","category":301,"month":null,"numberTrans":2,"totalAmount":30000,"percent":3.74,"categoryName":"POST - Add user category - Type: IN - Group: 1"},{"userId":"0909498114","category":308,"month":null,"numberTrans":1,"totalAmount":20000,"percent":2.5,"categoryName":"POST - Add user category - Type: OUT - Group: 2 - Parent: Default Have Subcategory"},{"userId":"0909498114","category":302,"month":null,"numberTrans":1,"totalAmount":12000,"percent":1.5,"categoryName":"POST - Add user category - Type: IN - Group: 2 - Parent: User Created"}]}}</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="F4" authorId="0">
+      <text>
+        <t>{"user":"0909498114","result":true,"errorCode":0,"errorDesc":"","data":{"time":1656932322142,"statusCode":200,"errorCode":0,"errorDes":null,"totalAmount":831534,"listCategory":[{"userId":"0909498114","category":17,"month":"07/2022","numberTrans":2,"totalAmount":128000,"percent":170.88,"categoryName":"Kinh doanh"},{"userId":"0909498114","category":64,"month":"07/2022","numberTrans":1,"totalAmount":86000,"percent":114.81,"categoryName":"Internet"},{"userId":"0909498114","category":4,"month":"07/2022","numberTrans":1,"totalAmount":63000,"percent":84.11,"categoryName":"Sức khỏe"},{"userId":"0909498114","category":57,"month":"07/2022","numberTrans":1,"totalAmount":46000,"percent":61.41,"categoryName":"Vui chơi, giải trí"},{"userId":"0909498114","category":2,"month":"07/2022","numberTrans":2,"totalAmount":40000,"percent":53.4,"categoryName":"Khác"},{"userId":"0909498114","category":306,"month":"07/2022","numberTrans":2,"totalAmount":40000,"percent":53.4,"categoryName":"POST - Add user category - Type: OUT - Group: 2 - Parent: User Created"},{"userId":"0909498114","category":325,"month":"07/2022","numberTrans":29,"totalAmount":30220,"percent":40.34,"categoryName":"Add Category for test max OUT is number: 5"},{"userId":"0909498114","category":308,"month":"07/2022","numberTrans":1,"totalAmount":20000,"percent":26.7,"categoryName":"POST - Add user category - Type: OUT - Group: 2 - Parent: Default Have Subcategory"},{"userId":"0909498114","category":302,"month":"07/2022","numberTrans":1,"totalAmount":12000,"percent":-16.02,"categoryName":"POST - Add user category - Type: IN - Group: 2 - Parent: User Created"},{"userId":"0909498114","category":75,"month":"07/2022","numberTrans":2,"totalAmount":30000,"percent":-40.05,"categoryName":"Thu hồi nợ"},{"userId":"0909498114","category":301,"month":"07/2022","numberTrans":2,"totalAmount":30000,"percent":-40.05,"categoryName":"POST - Add user category - Type: IN - Group: 1"},{"userId":"0909498114","category":309,"month":"07/2022","numberTrans":29,"totalAmount":30314,"percent":-40.47,"categoryName":"Add Category for test max IN is number: 4"},{"userId":"0909498114","category":318,"month":"07/2022","numberTrans":1,"totalAmount":35000,"percent":-46.73,"categoryName":"Add Category for test max IN is number: 13"},{"userId":"0909498114","category":314,"month":"07/2022","numberTrans":1,"totalAmount":64000,"percent":-85.44,"categoryName":"Add Category for test max IN is number: 9"},{"userId":"0909498114","category":315,"month":"07/2022","numberTrans":1,"totalAmount":74000,"percent":-98.79,"categoryName":"Add Category for test max IN is number: 10"},{"userId":"0909498114","category":319,"month":"07/2022","numberTrans":2,"totalAmount":103000,"percent":-137.51,"categoryName":"Add Category for test max IN is number: 14"}]}}</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="F4" authorId="0">
+      <text>
+        <t>{"user":"0909498114","result":true,"errorCode":0,"errorDesc":"","data":{"time":1656932322395,"statusCode":200,"errorCode":0,"errorDes":null,"totalAmount":871534,"listCategory":[{"userId":"0909498114","category":17,"month":null,"numberTrans":2,"totalAmount":128000,"percent":14.69,"categoryName":"Kinh doanh"},{"userId":"0909498114","category":319,"month":null,"numberTrans":2,"totalAmount":103000,"percent":11.82,"categoryName":"Add Category for test max IN is number: 14"},{"userId":"0909498114","category":64,"month":null,"numberTrans":1,"totalAmount":86000,"percent":9.87,"categoryName":"Internet"},{"userId":"0909498114","category":315,"month":null,"numberTrans":1,"totalAmount":74000,"percent":8.49,"categoryName":"Add Category for test max IN is number: 10"},{"userId":"0909498114","category":314,"month":null,"numberTrans":1,"totalAmount":64000,"percent":7.34,"categoryName":"Add Category for test max IN is number: 9"},{"userId":"0909498114","category":4,"month":null,"numberTrans":1,"totalAmount":63000,"percent":7.23,"categoryName":"Sức khỏe"},{"userId":"0909498114","category":57,"month":null,"numberTrans":1,"totalAmount":46000,"percent":5.28,"categoryName":"Vui chơi, giải trí"},{"userId":"0909498114","category":305,"month":null,"numberTrans":2,"totalAmount":40000,"percent":4.59,"categoryName":"POST - Add user category - Type: OUT - Group: 1"},{"userId":"0909498114","category":306,"month":null,"numberTrans":2,"totalAmount":40000,"percent":4.59,"categoryName":"POST - Add user category - Type: OUT - Group: 2 - Parent: User Created"},{"userId":"0909498114","category":2,"month":null,"numberTrans":2,"totalAmount":40000,"percent":4.59,"categoryName":"Khác"},{"userId":"0909498114","category":318,"month":null,"numberTrans":1,"totalAmount":35000,"percent":4.02,"categoryName":"Add Category for test max IN is number: 13"},{"userId":"0909498114","category":309,"month":null,"numberTrans":29,"totalAmount":30314,"percent":3.48,"categoryName":"Add Category for test max IN is number: 4"},{"userId":"0909498114","category":325,"month":null,"numberTrans":29,"totalAmount":30220,"percent":3.47,"categoryName":"Add Category for test max OUT is number: 5"},{"userId":"0909498114","category":301,"month":null,"numberTrans":2,"totalAmount":30000,"percent":3.44,"categoryName":"POST - Add user category - Type: IN - Group: 1"},{"userId":"0909498114","category":75,"month":null,"numberTrans":2,"totalAmount":30000,"percent":3.44,"categoryName":"Thu hồi nợ"},{"userId":"0909498114","category":308,"month":null,"numberTrans":1,"totalAmount":20000,"percent":2.29,"categoryName":"POST - Add user category - Type: OUT - Group: 2 - Parent: Default Have Subcategory"},{"userId":"0909498114","category":302,"month":null,"numberTrans":1,"totalAmount":12000,"percent":1.38,"categoryName":"POST - Add user category - Type: IN - Group: 2 - Parent: User Created"}]}}</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="59">
   <si>
     <t>Report Time</t>
   </si>
   <si>
-    <t>2022-07-01T15:59:55.405703200</t>
+    <t>2022-07-04T17:58:30.477602500</t>
   </si>
   <si>
     <t>Suite Name</t>
@@ -85,22 +165,55 @@
     <t>Details</t>
   </si>
   <si>
-    <t>POST - UPDATE transaction - Type IN</t>
+    <t>GET - Get category p2p by config</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>00:00:00.569</t>
+  </si>
+  <si>
+    <t>go to detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GET - Get Report Category Percent - Type: IN -This Week </t>
   </si>
   <si>
     <t>FAILED</t>
   </si>
   <si>
-    <t>00:00:01.462</t>
-  </si>
-  <si>
-    <t>go to detail</t>
-  </si>
-  <si>
-    <t>POST - UPDATE transaction - Type OUT</t>
-  </si>
-  <si>
-    <t>00:00:00.378</t>
+    <t>00:00:00.254</t>
+  </si>
+  <si>
+    <t>GET - Get Report Category Percent - Type: IN - This Month</t>
+  </si>
+  <si>
+    <t>00:00:00.534</t>
+  </si>
+  <si>
+    <t>GET - Get Report Category Percent - Type: IN - Last 30 days</t>
+  </si>
+  <si>
+    <t>00:00:00.773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GET - Get Report Category Percent - Type: OUT -This Week </t>
+  </si>
+  <si>
+    <t>00:00:00.499</t>
+  </si>
+  <si>
+    <t>GET - Get Report Category Percent - Type: OUT - This Month</t>
+  </si>
+  <si>
+    <t>00:00:11.396</t>
+  </si>
+  <si>
+    <t>GET - Get Report Category Percent - Type: OUT - Last 30 days</t>
+  </si>
+  <si>
+    <t>00:00:00.159</t>
   </si>
   <si>
     <t>BACK TO SUMMARY</t>
@@ -121,35 +234,14 @@
     <t>Actual</t>
   </si>
   <si>
-    <t>Verify the number of count user category update add Transaction</t>
-  </si>
-  <si>
-    <t>The value of Query 'SELECT COUNT(*) FROM SOAP_ADMIN.EXPENSE_TRANSACTION_REF where owner = '0909498114'' is
-8</t>
-  </si>
-  <si>
-    <t>PASSED</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>Verify response data of request</t>
   </si>
   <si>
-    <t>POST request to https://api.mservice.com.vn/transhis/api/expense/transaction/edit
-Payload:  {
-    "expenseNote": "POST - UPDATE transaction - Type IN",
-    "manualAmount": 13000,
-    "customTime": "2022-07-01 15:59:53",
-    "expenseCategory": 303,
-    "transId": -517820
-}
+    <t>GET request to https://api.mservice.com.vn/transhis/api/expense/category-p2p
 Header:
   backend-svc: expense-api-transhis
   Accept: */*;q=0.8
-  M-Signature: QqR+k2XzeAk/I6I8e7ebOXel08tepEru1WGOvgBsGgs=
-  Content-Type: application/json</t>
+  M-Signature: QqR+k2XzeAk/I6I8e7ebOXel08tepEru1WGOvgBsGgs=</t>
   </si>
   <si>
     <t>Status code of Request:
@@ -165,145 +257,146 @@
     "result": true,
     "errorCode": 0,
     "errorDesc": "",
-    "data": {"time": 1656643427300,
-"statusCode": 200,
-"errorCode": 0,
-"errorDes": null,
-"transaction": {
-    "expenseType": 0,
-    "sourceFrom": 0,
-    "userId": null,
-    "categoryId": 0,
-    "moneySourceId": 0,
-    "notes": null,
-    "amount": null,
-    "customTime": null,
-    "transCate": null,
-    "transId": -517820
-}    }
+    "data": {
+        "time": 1655867133674,
+        "statusCode": 200,
+        "errorCode": 0,
+        "errorDes": null,
+        "expenseCategories": []
+    }
 }</t>
   </si>
   <si>
     <t>See detail in comment</t>
   </si>
   <si>
-    <t>Verify the number of count user category after update Transaction</t>
-  </si>
-  <si>
-    <t>Verify value of 'OWNER' field in SQL server is corrected</t>
-  </si>
-  <si>
-    <t>The value of Query 'SELECT OWNER FROM SOAP_ADMIN.EXPENSE_TRANSACTION_REF where TRANS_ID = '-517820'' is
-0909498114</t>
-  </si>
-  <si>
-    <t>0909498114</t>
-  </si>
-  <si>
-    <t>Verify value of 'EXPENSE_TYPE' field in SQL server is corrected</t>
-  </si>
-  <si>
-    <t>The value of Query 'SELECT EXPENSE_TYPE FROM SOAP_ADMIN.EXPENSE_TRANSACTION_REF where TRANS_ID = '-517820'' is
-1</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Verify value of 'NOTE' field in SQL server is corrected</t>
-  </si>
-  <si>
-    <t>The value of Query 'SELECT NOTE FROM SOAP_ADMIN.EXPENSE_TRANSACTION_REF where TRANS_ID = '-517820'' is
-POST - UPDATE transaction - Type IN</t>
-  </si>
-  <si>
-    <t>Verify value of 'AMOUNT' field in SQL server is corrected</t>
-  </si>
-  <si>
-    <t>The value of Query 'SELECT AMOUNT FROM SOAP_ADMIN.EXPENSE_TRANSACTION_REF where TRANS_ID = '-517820'' is
-13000</t>
-  </si>
-  <si>
-    <t>13000</t>
-  </si>
-  <si>
-    <t>Verify value of 'CUSTOM_TIME' field in SQL server is corrected</t>
-  </si>
-  <si>
-    <t>The value of Query 'SELECT CUSTOM_TIME FROM SOAP_ADMIN.EXPENSE_TRANSACTION_REF where TRANS_ID = '-517820'' is
-2022-07-01 15:59:53.0</t>
-  </si>
-  <si>
-    <t>2022-07-01 15:59:53.0</t>
-  </si>
-  <si>
-    <t>Verify value of 'CATEGORY_ID' field in SQL server is corrected</t>
-  </si>
-  <si>
-    <t>The value of Query 'SELECT CATEGORY_ID FROM SOAP_ADMIN.EXPENSE_TRANSACTION_REF where TRANS_ID = '-517820'' is
-303</t>
-  </si>
-  <si>
-    <t>302</t>
-  </si>
-  <si>
-    <t>POST request to https://api.mservice.com.vn/transhis/api/expense/transaction/edit
-Payload:  {
-    "expenseNote": "POST - UPDATE transaction - Type OUT",
-    "manualAmount": 13000,
-    "customTime": "2022-07-01 15:59:55",
-    "expenseCategory": 307,
-    "transId": -517824
-}
+    <t>GET request to https://api.mservice.com.vn/transhis/api/expense/report/ratio/category?reportType=1&amp;reportTime=1
 Header:
   backend-svc: expense-api-transhis
   Accept: */*;q=0.8
-  M-Signature: QqR+k2XzeAk/I6I8e7ebOXel08tepEru1WGOvgBsGgs=
-  Content-Type: application/json</t>
-  </si>
-  <si>
-    <t>Response body is match: 
-{
-    "user": "0909498114",
-    "result": true,
-    "errorCode": 0,
-    "errorDesc": "",
-    "data": {"time": 1656643427300,
-"statusCode": 200,
-"errorCode": 0,
-"errorDes": null,
-"transaction": {
-    "expenseType": 0,
-    "sourceFrom": 0,
-    "userId": null,
-    "categoryId": 0,
-    "moneySourceId": 0,
-    "notes": null,
-    "amount": null,
-    "customTime": null,
-    "transCate": null,
-    "transId": -517824
-}    }
-}</t>
-  </si>
-  <si>
-    <t>The value of Query 'SELECT OWNER FROM SOAP_ADMIN.EXPENSE_TRANSACTION_REF where TRANS_ID = '-517824'' is
-0909498114</t>
-  </si>
-  <si>
-    <t>The value of Query 'SELECT EXPENSE_TYPE FROM SOAP_ADMIN.EXPENSE_TRANSACTION_REF where TRANS_ID = '-517824'' is
--1</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>The value of Query 'SELECT NOTE FROM SOAP_ADMIN.EXPENSE_TRANSACTION_REF where TRANS_ID = '-517824'' is
-POST - UPDATE transaction - Type OUT</t>
-  </si>
-  <si>
-    <t>The value of Query 'SELECT AMOUNT FROM SOAP_ADMIN.EXPENSE_TRANSACTION_REF where TRANS_ID = '-517824'' is
--13000</t>
+  M-Signature: rwwe4BNXb+8E6MrdjbxPN3xEilREfxNi/cksKjIE08Y=</t>
+  </si>
+  <si>
+    <t>The response is contains:
+["totalAmount": 348314, {
+     "userId": "0909498114",
+     "category": 301,
+     "month": null,
+     "numberTrans": POST - Add new transaction - Type In - Category user added -  Group 1 - Have subcategory,
+     "totalAmount": 2,
+     "percent": 30000,
+     "categoryName": "8"
+ }]</t>
+  </si>
+  <si>
+    <t>SapCpiMessageStatusVerifier: Could NOT found text '"totalAmount": 348314'</t>
+  </si>
+  <si>
+    <t>GET request to https://api.mservice.com.vn/transhis/api/expense/report/ratio/category?reportType=1&amp;reportTime=2
+Header:
+  backend-svc: expense-api-transhis
+  Accept: */*;q=0.8
+  M-Signature: kHJT2q9/pYv5Wo81tiReYqVQpj3LpkK2r3kEz9VtFVw=</t>
+  </si>
+  <si>
+    <t>The response is contains:
+["totalAmount": 378314, {
+     "userId": "0909498114",
+     "category": 75,
+     "month": 07/2022,
+     "numberTrans": POST - Add new transaction - Type In - Default category -  Group 1 - No subcategory,
+     "totalAmount": 2,
+     "percent": 30000,
+     "categoryName": "7"
+ }]</t>
+  </si>
+  <si>
+    <t>SapCpiMessageStatusVerifier: Could NOT found text '"totalAmount": 378314'</t>
+  </si>
+  <si>
+    <t>GET request to https://api.mservice.com.vn/transhis/api/expense/report/ratio/category?reportType=1&amp;reportTime=3
+Header:
+  backend-svc: expense-api-transhis
+  Accept: */*;q=0.8
+  M-Signature: ODcMjRaWThfRKWidn3AmY1Um+Q37slT44l5/R14LveI=</t>
+  </si>
+  <si>
+    <t>The response is contains:
+["totalAmount": 1000179314, {
+     "userId": "0909498114",
+     "category": 0,
+     "month": null,
+     "numberTrans": NULL,
+     "totalAmount": 56,
+     "percent": 999801000,
+     "categoryName": "1"
+ }]</t>
+  </si>
+  <si>
+    <t>SapCpiMessageStatusVerifier: Could NOT found text '"totalAmount": 1000179314'</t>
+  </si>
+  <si>
+    <t>GET request to https://api.mservice.com.vn/transhis/api/expense/report/ratio/category?reportType=-1&amp;reportTime=1
+Header:
+  backend-svc: expense-api-transhis
+  Accept: */*;q=0.8
+  M-Signature: P3cJt+mEMn0XdGydJmqGwbonS3Nf27l+Sl+6fkXGZJI=</t>
+  </si>
+  <si>
+    <t>The response is contains:
+["totalAmount": 453220, {
+     "userId": "0909498114",
+     "category": 2,
+     "month": null,
+     "numberTrans": POST - Add new transaction - Type OUT - Default category - Group 1 - No subcategory,
+     "totalAmount": 2,
+     "percent": 40000,
+     "categoryName": "8"
+ }]</t>
+  </si>
+  <si>
+    <t>SapCpiMessageStatusVerifier: Could NOT found text '"totalAmount": 453220'</t>
+  </si>
+  <si>
+    <t>GET request to https://api.mservice.com.vn/transhis/api/expense/report/ratio/category?reportType=-1&amp;reportTime=2
+Header:
+  backend-svc: expense-api-transhis
+  Accept: */*;q=0.8
+  M-Signature: K9ZJX5WoqYw/oIWmuSPIGnkl8v2u0txRrgeNCfSkCiY=</t>
+  </si>
+  <si>
+    <t>The response is contains:
+["totalAmount": 453220, {
+     "userId": "0909498114",
+     "category": 2,
+     "month": 07/2022,
+     "numberTrans": POST - Add new transaction - Type OUT - Default category - Group 1 - No subcategory,
+     "totalAmount": 2,
+     "percent": 40000,
+     "categoryName": "8"
+ }]</t>
+  </si>
+  <si>
+    <t>GET request to https://api.mservice.com.vn/transhis/api/expense/report/ratio/category?reportType=-1&amp;reportTime=3
+Header:
+  backend-svc: expense-api-transhis
+  Accept: */*;q=0.8
+  M-Signature: YEXLXULD3NN5p4H7y8Rdu/4CNOqwoGLupKcSI4Y8vAE=</t>
+  </si>
+  <si>
+    <t>The response is contains:
+["totalAmount": -136578780, {
+     "userId": "0909498114",
+     "category": 0,
+     "month": null,
+     "numberTrans": NULL,
+     "totalAmount": 13,
+     "percent": -137072000,
+     "categoryName": "6"
+ }]</t>
+  </si>
+  <si>
+    <t>SapCpiMessageStatusVerifier: Could NOT found text '"totalAmount": -136578780'</t>
   </si>
 </sst>
 </file>
@@ -311,13 +404,358 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="29">
+  <fonts count="89">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -544,7 +982,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -569,12 +1007,12 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center"/>
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
@@ -604,10 +1042,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
@@ -620,7 +1058,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center"/>
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
@@ -633,10 +1074,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="26" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
@@ -649,6 +1090,228 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="6" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="50" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="6" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="54" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="58" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="6" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="62" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="66" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="6" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="70" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="74" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="6" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="78" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="82" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="6" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="86" fillId="5" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -663,9 +1326,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -699,7 +1382,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -707,7 +1390,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="5">
@@ -723,7 +1406,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="8">
@@ -744,19 +1427,19 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="10" t="n">
+      <c r="A9" s="9" t="n">
         <v>1.0</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -768,19 +1451,109 @@
         <v>17</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>16</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="22" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="28" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="34" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="40" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="46" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink location="'Case 13.1'!A1" ref="E9"/>
-    <hyperlink location="'Case 13.2'!A1" ref="E10"/>
+    <hyperlink location="'Case 1'!A1" ref="E9"/>
+    <hyperlink location="'Case 18.1'!A1" ref="E10"/>
+    <hyperlink location="'Case 18.2'!A1" ref="E11"/>
+    <hyperlink location="'Case 18.3'!A1" ref="E12"/>
+    <hyperlink location="'Case 18.4'!A1" ref="E13"/>
+    <hyperlink location="'Case 18.5'!A1" ref="E14"/>
+    <hyperlink location="'Case 18.6'!A1" ref="E15"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -788,7 +1561,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -804,211 +1577,67 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="23" t="s">
-        <v>19</v>
+      <c r="G1" s="53" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="18" t="s">
+      <c r="A2" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="18" t="s">
-        <v>24</v>
+      <c r="F2" s="48" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="26" t="n">
+      <c r="A3" s="56" t="n">
         <v>1.0</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s" s="27">
-        <v>27</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>28</v>
+      <c r="B3" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s" s="57">
+        <v>14</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="26" t="n">
+      <c r="A4" s="56" t="n">
         <v>2.0</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s" s="27">
-        <v>27</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="26" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s" s="27">
-        <v>27</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="26" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s" s="27">
-        <v>27</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="26" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" t="s" s="27">
-        <v>27</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="26" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26" t="s">
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="E8" t="s" s="27">
-        <v>27</v>
-      </c>
-      <c r="F8" s="26" t="s">
+      <c r="E4" t="s" s="57">
+        <v>14</v>
+      </c>
+      <c r="F4" s="56" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="26" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" t="s" s="27">
-        <v>27</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="26" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" t="s" s="27">
-        <v>27</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="26" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" t="s" s="27">
-        <v>27</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="26" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" t="s" s="28">
-        <v>14</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1026,7 +1655,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1042,175 +1671,537 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="34" t="s">
-        <v>19</v>
+      <c r="G1" s="64" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="59" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s" s="68">
+        <v>14</v>
+      </c>
+      <c r="F3" s="67" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="67" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s" s="69">
+        <v>18</v>
+      </c>
+      <c r="F4" s="67" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink location="'Summary'!A1" ref="G1"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="4.0" customWidth="true"/>
+    <col min="2" max="2" width="40.0" customWidth="true"/>
+    <col min="3" max="3" width="50.0" customWidth="true"/>
+    <col min="4" max="4" width="50.0" customWidth="true"/>
+    <col min="5" max="5" width="10.0" customWidth="true"/>
+    <col min="6" max="6" width="50.0" customWidth="true"/>
+    <col min="7" max="7" width="20.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="29" t="s">
+      <c r="G1" s="75" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="70" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s" s="79">
+        <v>14</v>
+      </c>
+      <c r="F3" s="78" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="78" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s" s="80">
+        <v>18</v>
+      </c>
+      <c r="F4" s="78" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink location="'Summary'!A1" ref="G1"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="4.0" customWidth="true"/>
+    <col min="2" max="2" width="40.0" customWidth="true"/>
+    <col min="3" max="3" width="50.0" customWidth="true"/>
+    <col min="4" max="4" width="50.0" customWidth="true"/>
+    <col min="5" max="5" width="10.0" customWidth="true"/>
+    <col min="6" max="6" width="50.0" customWidth="true"/>
+    <col min="7" max="7" width="20.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="29" t="s">
+      <c r="G1" s="86" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="81" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="81" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="81" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="81" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="89" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="89" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="89" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s" s="90">
+        <v>14</v>
+      </c>
+      <c r="F3" s="89" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="89" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s" s="91">
+        <v>18</v>
+      </c>
+      <c r="F4" s="89" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink location="'Summary'!A1" ref="G1"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="4.0" customWidth="true"/>
+    <col min="2" max="2" width="40.0" customWidth="true"/>
+    <col min="3" max="3" width="50.0" customWidth="true"/>
+    <col min="4" max="4" width="50.0" customWidth="true"/>
+    <col min="5" max="5" width="10.0" customWidth="true"/>
+    <col min="6" max="6" width="50.0" customWidth="true"/>
+    <col min="7" max="7" width="20.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="93" t="s">
         <v>24</v>
       </c>
+      <c r="G1" s="97" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="92" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="92" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="37" t="n">
+      <c r="A3" s="100" t="n">
         <v>1.0</v>
       </c>
-      <c r="B3" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37" t="s">
+      <c r="B3" s="100" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="100" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="100" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s" s="101">
+        <v>14</v>
+      </c>
+      <c r="F3" s="100" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="100" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" t="s" s="102">
+        <v>18</v>
+      </c>
+      <c r="F4" s="100" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink location="'Summary'!A1" ref="G1"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="4.0" customWidth="true"/>
+    <col min="2" max="2" width="40.0" customWidth="true"/>
+    <col min="3" max="3" width="50.0" customWidth="true"/>
+    <col min="4" max="4" width="50.0" customWidth="true"/>
+    <col min="5" max="5" width="10.0" customWidth="true"/>
+    <col min="6" max="6" width="50.0" customWidth="true"/>
+    <col min="7" max="7" width="20.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="E3" t="s" s="38">
-        <v>27</v>
-      </c>
-      <c r="F3" s="37" t="s">
+      <c r="G1" s="108" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="103" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="103" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="103" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="103" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="103" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="103" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="111" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="111" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="111" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="111" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s" s="112">
+        <v>14</v>
+      </c>
+      <c r="F3" s="111" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="111" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" t="s" s="113">
+        <v>18</v>
+      </c>
+      <c r="F4" s="111" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink location="'Summary'!A1" ref="G1"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="4.0" customWidth="true"/>
+    <col min="2" max="2" width="40.0" customWidth="true"/>
+    <col min="3" max="3" width="50.0" customWidth="true"/>
+    <col min="4" max="4" width="50.0" customWidth="true"/>
+    <col min="5" max="5" width="10.0" customWidth="true"/>
+    <col min="6" max="6" width="50.0" customWidth="true"/>
+    <col min="7" max="7" width="20.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="115" t="s">
         <v>28</v>
       </c>
+      <c r="G1" s="119" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="114" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="114" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="114" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="114" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="114" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="122" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="122" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="122" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="122" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s" s="123">
+        <v>14</v>
+      </c>
+      <c r="F3" s="122" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="37" t="n">
+      <c r="A4" s="122" t="n">
         <v>2.0</v>
       </c>
-      <c r="B4" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s" s="38">
-        <v>27</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="37" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" t="s" s="38">
-        <v>27</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="37" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s" s="38">
-        <v>27</v>
-      </c>
-      <c r="F6" s="37" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="37" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" t="s" s="38">
-        <v>27</v>
-      </c>
-      <c r="F7" s="37" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="37" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" t="s" s="38">
-        <v>27</v>
-      </c>
-      <c r="F8" s="37" t="s">
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="37" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37" t="s">
+      <c r="E4" t="s" s="124">
+        <v>18</v>
+      </c>
+      <c r="F4" s="122" t="s">
         <v>58</v>
-      </c>
-      <c r="E9" t="s" s="38">
-        <v>27</v>
-      </c>
-      <c r="F9" s="37" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="37" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" t="s" s="39">
-        <v>14</v>
-      </c>
-      <c r="F10" s="37" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
